--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Hell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A50888A-A873-48CB-A01A-F8920A0F759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74A7CD16-81E2-4A44-A482-328CB0417387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF81BC2D-0C8F-4944-93CB-071D5A693FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF7447C4-FE37-436B-9BE9-08E77D32B506}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exp35247" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp51247" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exp51247'!$A$1:$E$257</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="533">
   <si>
     <t>GpsData</t>
   </si>
@@ -37,1603 +40,1588 @@
     <t>Обем</t>
   </si>
   <si>
-    <t>42.66304,23.46378</t>
-  </si>
-  <si>
-    <t>кв. Казичене</t>
-  </si>
-  <si>
-    <t>ЛИЛБО ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.69287,23.32726</t>
+    <t>42.70702,23.35123</t>
+  </si>
+  <si>
+    <t>кв. Хаджи Димитър</t>
+  </si>
+  <si>
+    <t>СПИРИТ ШОП ЕООД</t>
+  </si>
+  <si>
+    <t>42.71423,23.38603</t>
+  </si>
+  <si>
+    <t>кв. Левски Г</t>
+  </si>
+  <si>
+    <t>ДИСТРА МАРКЕТ ООД</t>
+  </si>
+  <si>
+    <t>42.66267,23.3922</t>
+  </si>
+  <si>
+    <t>Дружба 1</t>
+  </si>
+  <si>
+    <t>ЛОЛИМА 2022 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70438886156307,23.38627655670166</t>
+  </si>
+  <si>
+    <t>Левски В</t>
+  </si>
+  <si>
+    <t>ИСПАС КОМЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.710151061908356,23.346319422125816</t>
+  </si>
+  <si>
+    <t>Хъни Комерс ЕООД</t>
+  </si>
+  <si>
+    <t>42.66776,23.31894</t>
+  </si>
+  <si>
+    <t>Лозенец</t>
+  </si>
+  <si>
+    <t>ВИТОША ЕНЕРЖИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69304,23.2823</t>
+  </si>
+  <si>
+    <t>Красна поляна 3</t>
+  </si>
+  <si>
+    <t>ФЕНИКС 1980 ЕООД</t>
+  </si>
+  <si>
+    <t>42.64449,23.34049</t>
+  </si>
+  <si>
+    <t>Студентски град</t>
+  </si>
+  <si>
+    <t>МИХАЙЛОВИ 24 ЕООД</t>
+  </si>
+  <si>
+    <t>42.66884,23.59621</t>
+  </si>
+  <si>
+    <t>Елин Пелин</t>
+  </si>
+  <si>
+    <t>НЕЙКОВ - Н87 ЕООД</t>
+  </si>
+  <si>
+    <t>42.76495306343535,23.196528777480125</t>
+  </si>
+  <si>
+    <t>Божурище</t>
+  </si>
+  <si>
+    <t>ФРЕШ МАРКЕТ 2013 ЕООД</t>
+  </si>
+  <si>
+    <t>Ихтиман</t>
+  </si>
+  <si>
+    <t>42.65158,23.34378</t>
+  </si>
+  <si>
+    <t>СТЕФИ ГЕОРГИЕВА ЕООД</t>
+  </si>
+  <si>
+    <t>42.68583,23.30612</t>
+  </si>
+  <si>
+    <t>Военна болница</t>
+  </si>
+  <si>
+    <t>БОЯДЖИЕВ 2025 ЕООД</t>
+  </si>
+  <si>
+    <t>42.69796248409445,23.2713620737195</t>
+  </si>
+  <si>
+    <t>Факултета</t>
+  </si>
+  <si>
+    <t>АУТОСТЕФИ 2007 ООД</t>
+  </si>
+  <si>
+    <t>42.306796897532806,23.70795026421547</t>
+  </si>
+  <si>
+    <t>Долна баня</t>
+  </si>
+  <si>
+    <t>ДИЙК ООД</t>
+  </si>
+  <si>
+    <t>42.67703,23.32037</t>
+  </si>
+  <si>
+    <t>ТАБАКО ШОП АА ЕООД</t>
+  </si>
+  <si>
+    <t>42.74211530210926,23.278155438601967</t>
+  </si>
+  <si>
+    <t>Обеля</t>
+  </si>
+  <si>
+    <t>МЕДИ 2022 ЕООД</t>
+  </si>
+  <si>
+    <t>42.68475,23.35327</t>
+  </si>
+  <si>
+    <t>Гео Милев</t>
+  </si>
+  <si>
+    <t>РОСИМ КОМЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.69185,23.32616</t>
+  </si>
+  <si>
+    <t>Център 1</t>
+  </si>
+  <si>
+    <t>ЕН ДЖИ ШОПС ЕООД</t>
+  </si>
+  <si>
+    <t>42.67196,23.59995</t>
+  </si>
+  <si>
+    <t>СИЙОНИ ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.68843,23.32868</t>
+  </si>
+  <si>
+    <t>КОВАЧЕВ ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.69310215424977,23.329104334115982</t>
   </si>
   <si>
     <t>Център 2</t>
   </si>
   <si>
-    <t>ТОП ТАБАКО ООД</t>
-  </si>
-  <si>
-    <t>42.70189,23.44995</t>
-  </si>
-  <si>
-    <t>кв. Кривина</t>
-  </si>
-  <si>
-    <t>ТРАНСКОМЕРС М ЕООД</t>
-  </si>
-  <si>
-    <t>42.69284,23.31979</t>
-  </si>
-  <si>
-    <t>Център 1</t>
-  </si>
-  <si>
-    <t>АВИ СЪРВИС ООД</t>
-  </si>
-  <si>
-    <t>42.64923,23.39356</t>
-  </si>
-  <si>
-    <t>Младост 1А</t>
-  </si>
-  <si>
-    <t>АДИ - АН ЕООД</t>
-  </si>
-  <si>
-    <t>42.30864,23.8587</t>
-  </si>
-  <si>
-    <t>Костенец</t>
-  </si>
-  <si>
-    <t>КЕШ СТОЯНЧЕВИ ООД</t>
-  </si>
-  <si>
-    <t>42.7001,23.32481</t>
-  </si>
-  <si>
-    <t>БАДЕР 2015 ЕООД</t>
-  </si>
-  <si>
-    <t>42.67411454041621,23.25034260749817</t>
-  </si>
-  <si>
-    <t>Овча купел - стара част</t>
+    <t>ЛОТОС Ю ЕООД</t>
+  </si>
+  <si>
+    <t>42.67846,23.29117</t>
+  </si>
+  <si>
+    <t>Бели брези</t>
+  </si>
+  <si>
+    <t>ВЕЖОР ЕООД</t>
+  </si>
+  <si>
+    <t>42.69068,23.32336</t>
+  </si>
+  <si>
+    <t>ВЪРБАНОВ ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.70261,23.31458</t>
+  </si>
+  <si>
+    <t>МАРК - 9493 ООД</t>
+  </si>
+  <si>
+    <t>42.67331,23.3338</t>
+  </si>
+  <si>
+    <t>ЦЕЗАР И СИН ЕООД</t>
+  </si>
+  <si>
+    <t>42.6769,23.30421</t>
+  </si>
+  <si>
+    <t>Иван Вазов</t>
+  </si>
+  <si>
+    <t>ДАС ТРЕЙДИНГ ООД</t>
+  </si>
+  <si>
+    <t>42.58599,23.35964</t>
+  </si>
+  <si>
+    <t>с. Бистрица</t>
+  </si>
+  <si>
+    <t>ДЕЙС ГРУП ООД</t>
+  </si>
+  <si>
+    <t>42.68551,23.36124</t>
+  </si>
+  <si>
+    <t>Редута</t>
+  </si>
+  <si>
+    <t>ДЖИ ПИ АУТО ПАРТС ЕООД</t>
+  </si>
+  <si>
+    <t>42.63633,24.3596</t>
+  </si>
+  <si>
+    <t>Пирдоп</t>
+  </si>
+  <si>
+    <t>ОНИКС ТРЕЙД - СТОИЧКОВИ ООД</t>
+  </si>
+  <si>
+    <t>42.66855320610576,23.31911277025938</t>
+  </si>
+  <si>
+    <t>ПАВИЛИОН 24 ЕООД</t>
+  </si>
+  <si>
+    <t>42.33819,23.54644</t>
+  </si>
+  <si>
+    <t>Самоков</t>
+  </si>
+  <si>
+    <t>КАПРИЗ К И К ООД</t>
+  </si>
+  <si>
+    <t>42.699440664519486,23.25733110308647</t>
+  </si>
+  <si>
+    <t>ФАСИЛИТИ МЕНИДЖМЪНТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69236,23.35129</t>
+  </si>
+  <si>
+    <t>СИМА  2013 ЕООД</t>
+  </si>
+  <si>
+    <t>42.676788783257734,23.306663297116753</t>
+  </si>
+  <si>
+    <t>АЛКО ДЖИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.58566,23.36274</t>
+  </si>
+  <si>
+    <t>БОРЯНА - М  ЕТ</t>
+  </si>
+  <si>
+    <t>42.71153,23.38467</t>
+  </si>
+  <si>
+    <t>Ю ТРЕЙД 7 ЕООД</t>
+  </si>
+  <si>
+    <t>42.67592,23.31809</t>
+  </si>
+  <si>
+    <t>МТМ-СТЕФАНОВА ЕООД</t>
+  </si>
+  <si>
+    <t>42.73156064882483,23.2492496073246</t>
+  </si>
+  <si>
+    <t>Люлин 1</t>
+  </si>
+  <si>
+    <t>КУИК 2 ООД</t>
+  </si>
+  <si>
+    <t>42.643128171668856,23.640993610024452</t>
+  </si>
+  <si>
+    <t>села около Елин Пелин</t>
+  </si>
+  <si>
+    <t>КРИСТАЛ МАРКЕТ ООД</t>
+  </si>
+  <si>
+    <t>42.66855,23.394935</t>
+  </si>
+  <si>
+    <t>42.66236,23.40978</t>
+  </si>
+  <si>
+    <t>Дружба 2</t>
+  </si>
+  <si>
+    <t>ЛАКО КОМЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.6966,23.28668</t>
+  </si>
+  <si>
+    <t>Красна поляна 1</t>
+  </si>
+  <si>
+    <t>НИК - Н.КАМЕНОВСКИ ЕТ</t>
+  </si>
+  <si>
+    <t>42.658003299314935,23.397993184626102</t>
+  </si>
+  <si>
+    <t>НУНЕС ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.66599571274751,23.32537639886141</t>
+  </si>
+  <si>
+    <t>Хладилника</t>
+  </si>
+  <si>
+    <t>ФУУДУЕЙС ЕООД</t>
+  </si>
+  <si>
+    <t>42.67517,23.30939</t>
+  </si>
+  <si>
+    <t>ВИКТОРИ 345 ЕООД</t>
+  </si>
+  <si>
+    <t>42.68759,23.35354</t>
+  </si>
+  <si>
+    <t>КАЯ РУСЕВ ООД</t>
+  </si>
+  <si>
+    <t>42.71669081056938,23.26870433986187</t>
+  </si>
+  <si>
+    <t>Люлин 10</t>
+  </si>
+  <si>
+    <t>ВМН - КОМЕРС ООД</t>
+  </si>
+  <si>
+    <t>42.728525000754715,23.291118554770943</t>
+  </si>
+  <si>
+    <t>Надежда 1 и 3</t>
+  </si>
+  <si>
+    <t>КРЕЗО 3 ЕООД</t>
+  </si>
+  <si>
+    <t>42.71980807731098,23.26688144356012</t>
+  </si>
+  <si>
+    <t>Люлин 9</t>
+  </si>
+  <si>
+    <t>42.650737564803364, 23.31642968765178</t>
+  </si>
+  <si>
+    <t>Кръстова вада</t>
+  </si>
+  <si>
+    <t>42.71907773214143,23.296148031949997</t>
+  </si>
+  <si>
+    <t>Захарна Фабрика</t>
+  </si>
+  <si>
+    <t>ЦВЕТНА ЗОРА ЕООД</t>
+  </si>
+  <si>
+    <t>42.72571604429088,23.29143103212118</t>
+  </si>
+  <si>
+    <t>КРЕЗО EOOД</t>
+  </si>
+  <si>
+    <t>42.66992,23.39749</t>
+  </si>
+  <si>
+    <t>СИСИ 65 ЕООД</t>
+  </si>
+  <si>
+    <t>42.6792043,23.3614939</t>
+  </si>
+  <si>
+    <t>42.68621,23.3187</t>
+  </si>
+  <si>
+    <t>ЕЛЕМ - 1 ЕООД</t>
+  </si>
+  <si>
+    <t>42.72715,23.29415</t>
+  </si>
+  <si>
+    <t>КЕНДИ ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.71088,23.37655</t>
+  </si>
+  <si>
+    <t>БЕЛИБОР ЕООД</t>
+  </si>
+  <si>
+    <t>42.66831,23.39529</t>
+  </si>
+  <si>
+    <t>СИА ТРЕЙДИНГ ООД</t>
+  </si>
+  <si>
+    <t>42.69026,23.32866</t>
+  </si>
+  <si>
+    <t>ЕН ДЖИ ГРУП 1 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70826,23.37641</t>
+  </si>
+  <si>
+    <t>МАККАМ ЕООД</t>
+  </si>
+  <si>
+    <t>42.6975,23.2745</t>
+  </si>
+  <si>
+    <t>МТИ - МИХАИЛ РАЙЧЕВ ЕТ</t>
+  </si>
+  <si>
+    <t>42.34714,23.52397</t>
+  </si>
+  <si>
+    <t>с. Продановци</t>
+  </si>
+  <si>
+    <t>КАЛИНА 76- КАЛИНА БАНЧЕВА ООД</t>
+  </si>
+  <si>
+    <t>42.71464,23.34733</t>
+  </si>
+  <si>
+    <t>кв. Малашевци</t>
+  </si>
+  <si>
+    <t>ВИВИЛЕН ООД</t>
+  </si>
+  <si>
+    <t>42.70844,23.38532</t>
+  </si>
+  <si>
+    <t>ЕДИС ЕООД</t>
+  </si>
+  <si>
+    <t>42.723909181399605,23.273960798978806</t>
+  </si>
+  <si>
+    <t>Люлин модерно предградие</t>
+  </si>
+  <si>
+    <t>ДН ШОП ООД</t>
+  </si>
+  <si>
+    <t>42.33586,23.56074</t>
+  </si>
+  <si>
+    <t>Г И К ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.73178180251612,23.29235840588808</t>
+  </si>
+  <si>
+    <t>42.66939,23.60246</t>
+  </si>
+  <si>
+    <t>БЕЛМОНТ - М ЕООД</t>
+  </si>
+  <si>
+    <t>42.6884,23.30467</t>
+  </si>
+  <si>
+    <t>КОМА ГРУП ООД</t>
+  </si>
+  <si>
+    <t>42.70657,23.35084</t>
+  </si>
+  <si>
+    <t>ВЕГА - БЪРЗА ЗАКУСКА ЕООД</t>
+  </si>
+  <si>
+    <t>42.70777,23.37992</t>
+  </si>
+  <si>
+    <t>РЕГУЛУС 24 ЕООД</t>
+  </si>
+  <si>
+    <t>42.69644,23.28131</t>
+  </si>
+  <si>
+    <t>ИНТЕРСПИЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.74502,23.27978</t>
+  </si>
+  <si>
+    <t>ПОЛУС ЕООД</t>
+  </si>
+  <si>
+    <t>42.69037,23.38145</t>
+  </si>
+  <si>
+    <t>кв. Христо Ботев</t>
+  </si>
+  <si>
+    <t>СТОЯН ГРОЗДАНОВ ЕТ</t>
+  </si>
+  <si>
+    <t>42.71038,23.34604</t>
+  </si>
+  <si>
+    <t>ЗАХАРНИ ИЗДЕЛИЯ 25 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70976,23.38589</t>
+  </si>
+  <si>
+    <t>ВЕНИЦВЕТ 22 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70946,23.38048</t>
+  </si>
+  <si>
+    <t>РЕД МЪНКИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.72777,23.30022</t>
+  </si>
+  <si>
+    <t>КАМИС ИНДЕГ ЕООД</t>
+  </si>
+  <si>
+    <t>42.661775643322535,23.39811522513628</t>
+  </si>
+  <si>
+    <t>МАРКЕТ РЕВОЛЮШЪН ООД</t>
+  </si>
+  <si>
+    <t>42.35503914884565,23.548012152314186</t>
+  </si>
+  <si>
+    <t>ЙОТИ ООД</t>
+  </si>
+  <si>
+    <t>42.69196,23.35924</t>
+  </si>
+  <si>
+    <t>42.6851691725001,23.303554616868496</t>
+  </si>
+  <si>
+    <t>ШАРМАТ И КО ЕООД</t>
+  </si>
+  <si>
+    <t>42.64567,23.33888</t>
+  </si>
+  <si>
+    <t>ЕВРО СИС ТЕХНОЛОДЖИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.67252754016888,23.285237811505795</t>
+  </si>
+  <si>
+    <t>Борово</t>
+  </si>
+  <si>
+    <t>А И А ТРЕЙД ООД</t>
+  </si>
+  <si>
+    <t>42.70824,23.35191</t>
+  </si>
+  <si>
+    <t>БИЛЯНА 2025 ЕООД</t>
+  </si>
+  <si>
+    <t>42.67623,23.30846</t>
+  </si>
+  <si>
+    <t>КОРНЪР ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.73933921900134,23.273989632725716</t>
+  </si>
+  <si>
+    <t>42.58559,23.36053</t>
+  </si>
+  <si>
+    <t>НИЙКС 11 ЕООД</t>
+  </si>
+  <si>
+    <t>42.67828,23.30838</t>
+  </si>
+  <si>
+    <t>СКАЙЛАЙН 34 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70925,23.39357</t>
+  </si>
+  <si>
+    <t>ПРОДАЖБИ НА ДРЕБНО-ЙОРДАНКА ТУМБАЛОВА</t>
+  </si>
+  <si>
+    <t>42.67214,23.33313</t>
+  </si>
+  <si>
+    <t>ВИЕНДИ КОМЕРС ООД</t>
+  </si>
+  <si>
+    <t>42.734972681754215,24.25930917263031</t>
+  </si>
+  <si>
+    <t>ДОНЕЛИ 78 ЕООД</t>
+  </si>
+  <si>
+    <t>42.6929152,23.3596526</t>
+  </si>
+  <si>
+    <t>АТАМА ТУИН 2 ООД</t>
+  </si>
+  <si>
+    <t>42.58591,23.36035</t>
+  </si>
+  <si>
+    <t>ТИМЕКС 2008 ЕООД</t>
+  </si>
+  <si>
+    <t>42.65648,23.39379</t>
+  </si>
+  <si>
+    <t>МИРДЖАН 22ООД</t>
+  </si>
+  <si>
+    <t>42.7177,23.2711</t>
+  </si>
+  <si>
+    <t>ТРЕЙДИНГ - Т ЕООД</t>
+  </si>
+  <si>
+    <t>42.32745599914614,23.55698548257351</t>
+  </si>
+  <si>
+    <t>СТИВ 84 ЕООД</t>
+  </si>
+  <si>
+    <t>42.64919192799166,23.346183494001025</t>
+  </si>
+  <si>
+    <t>ПРОВИЖЪН 1 ООД</t>
+  </si>
+  <si>
+    <t>42.71601,23.26784</t>
+  </si>
+  <si>
+    <t>МИБО 82 ООД</t>
+  </si>
+  <si>
+    <t>42.74632129656609,23.269982412457466</t>
+  </si>
+  <si>
+    <t>МИЛЧЕВИ МАРКЕТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.31097478175309,23.764285370707512</t>
+  </si>
+  <si>
+    <t>ЪНКЪЛ И ФИШ 5 ЕООД</t>
+  </si>
+  <si>
+    <t>42.67951,23.31033</t>
+  </si>
+  <si>
+    <t>ВИТОША БЕСТ ФУУД ЕООД</t>
+  </si>
+  <si>
+    <t>42.717511833271274,23.278231881558895</t>
+  </si>
+  <si>
+    <t>НИКМАРТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.70746,23.35622</t>
+  </si>
+  <si>
+    <t>АЛКОХОЛ ТАБАКО АБ ЕООД</t>
+  </si>
+  <si>
+    <t>42.68992,23.32344</t>
+  </si>
+  <si>
+    <t>ЕЙ ДЖИ ЕНД КО  ООД</t>
+  </si>
+  <si>
+    <t>42.69335,23.33105</t>
+  </si>
+  <si>
+    <t>АРМАЯ ООД</t>
+  </si>
+  <si>
+    <t>42.6605,23.39696</t>
+  </si>
+  <si>
+    <t>КИРКОВ 2000 ООД</t>
+  </si>
+  <si>
+    <t>42.68929,23.38279</t>
+  </si>
+  <si>
+    <t>ЗОРНИЦА И ДЪЩЕРИ ПР ЕООД</t>
+  </si>
+  <si>
+    <t>42.30835626016551,23.76129772514105</t>
+  </si>
+  <si>
+    <t>ВЕНЦИСЛАВ 52 ЕТ</t>
+  </si>
+  <si>
+    <t>42.73518988312487,23.29026125371456</t>
+  </si>
+  <si>
+    <t>Връбница 1</t>
+  </si>
+  <si>
+    <t>ДАБЪЛ КУИК ООД</t>
+  </si>
+  <si>
+    <t>42.71739334851756,23.26125584542751</t>
+  </si>
+  <si>
+    <t>КИРИЛ И АЛЕКСАНДЪР ЕООД</t>
+  </si>
+  <si>
+    <t>42.69132,23.38273</t>
+  </si>
+  <si>
+    <t>КАМИ И ЖОРО ЕООД</t>
+  </si>
+  <si>
+    <t>42.74274639182977,23.273305669426918</t>
+  </si>
+  <si>
+    <t>42.68286,23.36744</t>
+  </si>
+  <si>
+    <t>ФРУТ ХАУС ООД</t>
+  </si>
+  <si>
+    <t>42.660221366690884,23.382813222706318</t>
+  </si>
+  <si>
+    <t>КАЗИНО ИНБЕТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.74411,23.28297</t>
+  </si>
+  <si>
+    <t>КРИСТАЛ 2000 ООД</t>
+  </si>
+  <si>
+    <t>42.69534,23.2842</t>
+  </si>
+  <si>
+    <t>БАЯРА ООД</t>
+  </si>
+  <si>
+    <t>42.70833,24.17603</t>
+  </si>
+  <si>
+    <t>ЦВЕТА-ЦВЕТАНА ЙОТОВА ЕТ</t>
+  </si>
+  <si>
+    <t>42.32715,23.55613</t>
+  </si>
+  <si>
+    <t>ДИ ЗИ ТРЕЙД. ООД</t>
+  </si>
+  <si>
+    <t>42.71346,23.37726</t>
+  </si>
+  <si>
+    <t>42.67814,23.32193</t>
+  </si>
+  <si>
+    <t>ДЕСПОДОВ 22 ЕООД</t>
+  </si>
+  <si>
+    <t>42.68456,23.37197</t>
+  </si>
+  <si>
+    <t>Слатина</t>
+  </si>
+  <si>
+    <t>КАМЕЙ ЕООД</t>
+  </si>
+  <si>
+    <t>42.65366,23.34425</t>
+  </si>
+  <si>
+    <t>ТОРОС ТРЕЙД  2017 ЕООД</t>
+  </si>
+  <si>
+    <t>42.69622,23.34496</t>
+  </si>
+  <si>
+    <t>42.4319,23.85167</t>
+  </si>
+  <si>
+    <t>43-ТИ КИЛОМЕТЪР ЕООД</t>
+  </si>
+  <si>
+    <t>42.67108,23.3174</t>
+  </si>
+  <si>
+    <t>МАНДАРИН-МН ООД</t>
+  </si>
+  <si>
+    <t>42.68654,23.31733</t>
+  </si>
+  <si>
+    <t>НЕЙД ГРУП ООД</t>
+  </si>
+  <si>
+    <t>42.66974,23.65213</t>
+  </si>
+  <si>
+    <t>ДЕТЕЛИНА - ГЕКОВ ЕООД</t>
+  </si>
+  <si>
+    <t>42.33703,23.5558</t>
+  </si>
+  <si>
+    <t>АР ВИ ПИ КРИЕЙТИВ ЕООД</t>
+  </si>
+  <si>
+    <t>42.64083,23.64544</t>
+  </si>
+  <si>
+    <t>ЛИМА - БОЖАНКА ПАНКОВА ЕТ</t>
+  </si>
+  <si>
+    <t>42.33236,23.55272</t>
+  </si>
+  <si>
+    <t>ФРЕШ МЮЗИК ЕООД</t>
+  </si>
+  <si>
+    <t>42.72915,23.298005</t>
+  </si>
+  <si>
+    <t>42.6897,23.38137</t>
+  </si>
+  <si>
+    <t>ЛЮБИЦА 85 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70073,23.32272</t>
+  </si>
+  <si>
+    <t>ПРИ МАРИО ЕООД</t>
+  </si>
+  <si>
+    <t>42.68953,23.36057</t>
+  </si>
+  <si>
+    <t>АТАМА ТУИН 3 ООД</t>
+  </si>
+  <si>
+    <t>42.72452,23.30033</t>
+  </si>
+  <si>
+    <t>ЕСЕЙДИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69275,23.3287</t>
+  </si>
+  <si>
+    <t>АНГАГА ЕООД</t>
+  </si>
+  <si>
+    <t>42.66666,23.39682</t>
+  </si>
+  <si>
+    <t>42.69571,23.27216</t>
+  </si>
+  <si>
+    <t>АДИ БГ1 ООД</t>
+  </si>
+  <si>
+    <t>42.65191652192232,23.341500163078308</t>
+  </si>
+  <si>
+    <t>ИТЕКС 1 ООД</t>
+  </si>
+  <si>
+    <t>42.70934,23.38649</t>
+  </si>
+  <si>
+    <t>РОСИ 2022 ЕООД</t>
+  </si>
+  <si>
+    <t>42.742415,23.277565</t>
+  </si>
+  <si>
+    <t>ГРР 2017 ООД</t>
+  </si>
+  <si>
+    <t>42.71256,23.62681</t>
+  </si>
+  <si>
+    <t>РПК РАЗВИТИЕ  ЕЛИН ПЕЛИН</t>
+  </si>
+  <si>
+    <t>42.63287,23.68635</t>
+  </si>
+  <si>
+    <t>42.66894,23.68268</t>
+  </si>
+  <si>
+    <t>МЕГИ - МД ЕООД</t>
+  </si>
+  <si>
+    <t>42.64304,23.33959</t>
+  </si>
+  <si>
+    <t>Малинова Долина</t>
+  </si>
+  <si>
+    <t>ВАСИМАР - ИН ЕООД</t>
+  </si>
+  <si>
+    <t>42.68907,23.36204</t>
+  </si>
+  <si>
+    <t>СПОТ КЪМПАНИ ООД</t>
+  </si>
+  <si>
+    <t>42.69971,23.32456</t>
+  </si>
+  <si>
+    <t>МАЛДИ М ЕООД</t>
+  </si>
+  <si>
+    <t>42.31141,23.7539</t>
+  </si>
+  <si>
+    <t>ШАНС-РУМЯНА СТЕФАНОВА ЕТ</t>
+  </si>
+  <si>
+    <t>42.71008,23.34594</t>
+  </si>
+  <si>
+    <t>РЕЙ 2022 ЕООД</t>
+  </si>
+  <si>
+    <t>42.72858,23.29587</t>
+  </si>
+  <si>
+    <t>ИВЕЛ - 2015 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70431,23.38657</t>
+  </si>
+  <si>
+    <t>СИМКАТ ООД</t>
+  </si>
+  <si>
+    <t>42.66412,23.39715</t>
+  </si>
+  <si>
+    <t>МАКО СТРОЙ БИЛД ООД</t>
+  </si>
+  <si>
+    <t>42.65842,23.37783</t>
+  </si>
+  <si>
+    <t>Младост 1</t>
+  </si>
+  <si>
+    <t>ВИВЕНИ 2015 ООД</t>
+  </si>
+  <si>
+    <t>42.70304,23.27707</t>
+  </si>
+  <si>
+    <t>Гевгелийски</t>
+  </si>
+  <si>
+    <t>РАШЕВ ООД</t>
+  </si>
+  <si>
+    <t>42.65971,23.39526</t>
+  </si>
+  <si>
+    <t>МЛАДЕН 95 ООД</t>
+  </si>
+  <si>
+    <t>42.69045,23.32608</t>
+  </si>
+  <si>
+    <t>МАРИС ИНТЕРНЕШЪНАЛ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69639,23.31698</t>
+  </si>
+  <si>
+    <t>НАС 777 ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.66184,23.3967</t>
+  </si>
+  <si>
+    <t>42.68718,23.32625</t>
+  </si>
+  <si>
+    <t>БИГ ХАГС БГ ЕООД</t>
+  </si>
+  <si>
+    <t>42.68876,23.30685</t>
+  </si>
+  <si>
+    <t>42.65468,23.36297</t>
+  </si>
+  <si>
+    <t>Дървеница</t>
+  </si>
+  <si>
+    <t>СМТ МАРКЕТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.70051595152338,24.176298156380653</t>
+  </si>
+  <si>
+    <t>АСЯ - ТРАНС ЕООД</t>
+  </si>
+  <si>
+    <t>42.73378,23.28957</t>
+  </si>
+  <si>
+    <t>ИЗАБЕЛ 2013 ООД</t>
+  </si>
+  <si>
+    <t>42.711,23.37867</t>
+  </si>
+  <si>
+    <t>42.66665,23.39034</t>
+  </si>
+  <si>
+    <t>ЗЛАТКОВИ ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.67068,23.32065</t>
+  </si>
+  <si>
+    <t>42.6949,23.27264</t>
+  </si>
+  <si>
+    <t>МИНИ КАС ЕООД</t>
+  </si>
+  <si>
+    <t>42.68892,23.38393</t>
+  </si>
+  <si>
+    <t>МИЛЕНА КОРЕКТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.71351,23.248885</t>
+  </si>
+  <si>
+    <t>Люлин 6</t>
+  </si>
+  <si>
+    <t>42.67615,23.36139</t>
+  </si>
+  <si>
+    <t>ВАГ КОМЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.69076,23.36366</t>
+  </si>
+  <si>
+    <t>Л И М Л.АСПАРУХОВ  ЕТ</t>
+  </si>
+  <si>
+    <t>42.69454,23.26557</t>
+  </si>
+  <si>
+    <t>ЯНКО 15 ЕООД</t>
+  </si>
+  <si>
+    <t>42.69804084159963,23.307840786874294</t>
+  </si>
+  <si>
+    <t>Зона Б5 и Б18</t>
+  </si>
+  <si>
+    <t>42.71285,24.13942</t>
+  </si>
+  <si>
+    <t>Златица</t>
+  </si>
+  <si>
+    <t>ОЛВИ-БОРИСЛАВА НИКОЛОВА ЕТ</t>
+  </si>
+  <si>
+    <t>42.74318,23.27388</t>
+  </si>
+  <si>
+    <t>42.6922,23.70749</t>
+  </si>
+  <si>
+    <t>АЛЕКС-АЛЕКСАНДЪР ПАНОВ ЕТ</t>
+  </si>
+  <si>
+    <t>42.67162,23.59935</t>
+  </si>
+  <si>
+    <t>ЖИДОВ ЕООД</t>
+  </si>
+  <si>
+    <t>42.65195,23.34249</t>
+  </si>
+  <si>
+    <t>42.70961,23.3522</t>
+  </si>
+  <si>
+    <t>И 8 ЕООД</t>
+  </si>
+  <si>
+    <t>42.64646,23.34311</t>
+  </si>
+  <si>
+    <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+  </si>
+  <si>
+    <t>42.71397,23.85598</t>
+  </si>
+  <si>
+    <t>МИХАЙЛ 1992 ЕООД</t>
+  </si>
+  <si>
+    <t>42.68875,23.30717</t>
+  </si>
+  <si>
+    <t>КА ЕНД ЕВ ЕООД</t>
+  </si>
+  <si>
+    <t>42.729895,23.293495</t>
+  </si>
+  <si>
+    <t>42.72573944252457,23.29701036214828</t>
+  </si>
+  <si>
+    <t>БАКАЛИЯ 2014 ООД</t>
+  </si>
+  <si>
+    <t>42.70471,24.16211</t>
+  </si>
+  <si>
+    <t>ГАЗТРЕЙД-ПИРДОП 2 ООД</t>
+  </si>
+  <si>
+    <t>42.64688267563793,23.33965916186571</t>
+  </si>
+  <si>
+    <t>42.69083,23.36357</t>
+  </si>
+  <si>
+    <t>ИНТЕРХОУМ ООД</t>
+  </si>
+  <si>
+    <t>42.69714539176528,23.277438618242744</t>
+  </si>
+  <si>
+    <t>ГЕ - 13 ЕООД</t>
+  </si>
+  <si>
+    <t>42.66932,23.31692</t>
+  </si>
+  <si>
+    <t>ХИМ - 1 ЕООД</t>
+  </si>
+  <si>
+    <t>42.66476,23.39894</t>
+  </si>
+  <si>
+    <t>ВЕНЕКС ТРЕЙД ООД</t>
+  </si>
+  <si>
+    <t>42.69756075084197,23.276504470558166</t>
+  </si>
+  <si>
+    <t>ВТА 86 ЕООД</t>
+  </si>
+  <si>
+    <t>42.69917,24.16837</t>
+  </si>
+  <si>
+    <t>АЛАГЕН 51-ГЕНКА СЕМКОВА ЕТ</t>
+  </si>
+  <si>
+    <t>42.3414237980935,23.552507534623146</t>
+  </si>
+  <si>
+    <t>ОРБИС ЕООД</t>
+  </si>
+  <si>
+    <t>42.311957844231365,23.768864132013732</t>
+  </si>
+  <si>
+    <t>ДЖАМБО-К.ДЖАМБАЗОВ ЕТ</t>
+  </si>
+  <si>
+    <t>42.58533,23.35969</t>
+  </si>
+  <si>
+    <t>АБАНД 888 ЕООД</t>
+  </si>
+  <si>
+    <t>42.671942819703375,23.328688256442547</t>
+  </si>
+  <si>
+    <t>МИР ТРЕЙД ЕООД</t>
+  </si>
+  <si>
+    <t>42.747003714137826,23.27794615790367</t>
+  </si>
+  <si>
+    <t>АЛТЪН ЦАЙК ЕООД</t>
+  </si>
+  <si>
+    <t>42.33131525545523,23.550518341362476</t>
+  </si>
+  <si>
+    <t>ДИЕМ  ГРУП 2008 ООД</t>
+  </si>
+  <si>
+    <t>42.67599,23.33358</t>
+  </si>
+  <si>
+    <t>МАРКОС КОНСУЛТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69273,23.37893</t>
+  </si>
+  <si>
+    <t>ПЕТЪР ГЕОРГИЕВ ЕМП ЕТ</t>
+  </si>
+  <si>
+    <t>42.712942986023265,23.37688487023115</t>
+  </si>
+  <si>
+    <t>ЕРАМ-А ЕООД</t>
+  </si>
+  <si>
+    <t>42.69101474300405, 23.32437391209956</t>
+  </si>
+  <si>
+    <t>РЕНТ ЕКСПЕРТ БЪЛГАРИЯ ЕООД</t>
+  </si>
+  <si>
+    <t>42.68397,23.36034</t>
+  </si>
+  <si>
+    <t>42.69952394818372,24.175536073744297</t>
+  </si>
+  <si>
+    <t>42.66236,23.38198</t>
+  </si>
+  <si>
+    <t>БЪЛГАРИЯ КОФИ СЪРВИСИС ООД</t>
+  </si>
+  <si>
+    <t>42.7353,24.2604</t>
+  </si>
+  <si>
+    <t>ГАНЧОВСКИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.71404,24.13033</t>
+  </si>
+  <si>
+    <t>ИВАНОВИ 77 ООД</t>
+  </si>
+  <si>
+    <t>42.68658,23.32462</t>
+  </si>
+  <si>
+    <t>АЛФИСТА ПБ ЕООД</t>
+  </si>
+  <si>
+    <t>42.67032,23.33221</t>
+  </si>
+  <si>
+    <t>МЛАДДЖИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.69031,23.31262</t>
+  </si>
+  <si>
+    <t>42.66536532155796,23.392504714429375</t>
+  </si>
+  <si>
+    <t>ВИЧОНИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.66374,23.40419</t>
+  </si>
+  <si>
+    <t>АНЖЕЛ СИТИ ООД</t>
+  </si>
+  <si>
+    <t>42.66899,23.68283</t>
+  </si>
+  <si>
+    <t>ГАСТРОНОМ 2013 ЕООД</t>
+  </si>
+  <si>
+    <t>42.68925,23.38259</t>
+  </si>
+  <si>
+    <t>НИКОЛ ТРЕЙДИНГ ОБОРОТ ЕООД</t>
+  </si>
+  <si>
+    <t>42.70244,23.36039</t>
+  </si>
+  <si>
+    <t>Суха река</t>
+  </si>
+  <si>
+    <t>КАЛЕЯБГ ЕООД</t>
+  </si>
+  <si>
+    <t>42.638692958265665,23.64275850355625</t>
+  </si>
+  <si>
+    <t>ХРАН КОМЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.68332623945029,23.363272285219636</t>
+  </si>
+  <si>
+    <t>КОСЕВИ ООД</t>
+  </si>
+  <si>
+    <t>42.709973436792126,23.270812891423702</t>
+  </si>
+  <si>
+    <t>Люлин 7</t>
+  </si>
+  <si>
+    <t>42.65318,23.34255</t>
+  </si>
+  <si>
+    <t>ЛУКС МАРКЕТ ООД</t>
+  </si>
+  <si>
+    <t>42.70683,23.37326</t>
+  </si>
+  <si>
+    <t>Д М ТРАНС ООД</t>
+  </si>
+  <si>
+    <t>42.68922,23.3442</t>
+  </si>
+  <si>
+    <t>42.66874,23.60204</t>
+  </si>
+  <si>
+    <t>42.64807,23.33858</t>
+  </si>
+  <si>
+    <t>КА ЕНД ДИ ПАРТНЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.69841,23.28202</t>
+  </si>
+  <si>
+    <t>ИС - 08 ООД</t>
+  </si>
+  <si>
+    <t>42.67284,23.31564</t>
+  </si>
+  <si>
+    <t>ПРОГРЕС БГ 18  ЕООД</t>
+  </si>
+  <si>
+    <t>42.68268375074587,23.31408758327484</t>
+  </si>
+  <si>
+    <t>ТЕМАТЕК  ООД</t>
+  </si>
+  <si>
+    <t>42.65187,23.34245</t>
+  </si>
+  <si>
+    <t>АЯДИМ ЕООД</t>
+  </si>
+  <si>
+    <t>42.70936,23.38591</t>
+  </si>
+  <si>
+    <t>42.710406289340774,23.26596412807703</t>
+  </si>
+  <si>
+    <t>ГАНОВ ЕООД</t>
+  </si>
+  <si>
+    <t>42.66986,23.32498</t>
+  </si>
+  <si>
+    <t>БУРОВ И СИН ООД</t>
+  </si>
+  <si>
+    <t>42.70562,23.34703</t>
+  </si>
+  <si>
+    <t>ЗИТ 50 ЕООД</t>
+  </si>
+  <si>
+    <t>42.67923959901072,23.361877910792828</t>
+  </si>
+  <si>
+    <t>42.7133,23.38682</t>
+  </si>
+  <si>
+    <t>ИВЕЛ - И. ВЕЛЬОВСКИ 2009 ЕООД</t>
+  </si>
+  <si>
+    <t>42.60237,23.49602</t>
+  </si>
+  <si>
+    <t>Лозен</t>
+  </si>
+  <si>
+    <t>НИКО - 2 ООД</t>
+  </si>
+  <si>
+    <t>42.71522,23.37734</t>
+  </si>
+  <si>
+    <t>42.68922,23.33255</t>
+  </si>
+  <si>
+    <t>ИЛТЕР ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.64587,23.34231</t>
+  </si>
+  <si>
+    <t>Л Н ГРУП ЕООД</t>
+  </si>
+  <si>
+    <t>42.69848,23.31583</t>
+  </si>
+  <si>
+    <t>42.72734109221821,23.297478407621384</t>
+  </si>
+  <si>
+    <t>НАРВЕНА ЕЛ ЕООД</t>
+  </si>
+  <si>
+    <t>42.63212,24.3605</t>
+  </si>
+  <si>
+    <t>ЕМИЛИ КОПРИВЩИЦА 2009 ЕООД</t>
+  </si>
+  <si>
+    <t>42.727098741605985,23.26181810349226</t>
+  </si>
+  <si>
+    <t>Люлин склад</t>
+  </si>
+  <si>
+    <t>КОРНЕРС ЕООД</t>
+  </si>
+  <si>
+    <t>42.30965375730182,23.78552310168743</t>
   </si>
   <si>
     <t>САКСА ООД</t>
   </si>
   <si>
-    <t>42.71628,23.34101</t>
-  </si>
-  <si>
-    <t>кв. Малашевци</t>
-  </si>
-  <si>
-    <t>ДАБЪЛ В ЕООД</t>
-  </si>
-  <si>
-    <t>42.71658,23.34031</t>
-  </si>
-  <si>
-    <t>кв. Орландовци</t>
-  </si>
-  <si>
-    <t>ДТМ МАРКЕТ ЕООД</t>
-  </si>
-  <si>
-    <t>42.7577798415617,23.426220752298832</t>
-  </si>
-  <si>
-    <t>Чепинци</t>
-  </si>
-  <si>
-    <t>ИЛЕМА ТРЕЙД ООД</t>
-  </si>
-  <si>
-    <t>42.713379020363426,23.23939550668001</t>
-  </si>
-  <si>
-    <t>Люлин 5</t>
-  </si>
-  <si>
-    <t>ДРИНК МЕНИДЖМЪНТ 2019 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68903,23.32004</t>
-  </si>
-  <si>
-    <t>АЛЕКСАНДЪР - ХРИСТИЯНА ЕООД</t>
-  </si>
-  <si>
-    <t>42.30755,23.85802</t>
-  </si>
-  <si>
-    <t>НЕЙКОВ ГРУП ООД</t>
-  </si>
-  <si>
-    <t>42.719365191114335,23.263133056461808</t>
-  </si>
-  <si>
-    <t>Люлин 8</t>
-  </si>
-  <si>
-    <t>ЕВИ 2016 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68945,23.25517</t>
-  </si>
-  <si>
-    <t>Овча купел 1</t>
-  </si>
-  <si>
-    <t>ИПРОМ 06 ЕООД</t>
-  </si>
-  <si>
-    <t>42.7056,23.34513</t>
-  </si>
-  <si>
-    <t>кв. Хаджи Димитър</t>
-  </si>
-  <si>
-    <t>ЧИЧИ 4141 ООД</t>
-  </si>
-  <si>
-    <t>42.66627,23.36354</t>
-  </si>
-  <si>
-    <t>Младост 1</t>
-  </si>
-  <si>
-    <t>ДИМИТРОВ ТРЕЙД СЪРВИС ООД</t>
-  </si>
-  <si>
-    <t>42.69828,23.326040000000034</t>
-  </si>
-  <si>
-    <t>345 ООД</t>
-  </si>
-  <si>
-    <t>42.68186,23.3736</t>
-  </si>
-  <si>
-    <t>Слатина</t>
-  </si>
-  <si>
-    <t>ЕДЕН 1991 ЕООД</t>
-  </si>
-  <si>
-    <t>42.69252,23.32002</t>
-  </si>
-  <si>
-    <t>42.33304676261118,23.8730164244771</t>
-  </si>
-  <si>
-    <t>ВАСИМЕКС-СТРИНСКИ И С-ИЕ СД</t>
-  </si>
-  <si>
-    <t>42.71414,23.29838</t>
-  </si>
-  <si>
-    <t>Фондови жилища</t>
-  </si>
-  <si>
-    <t>ВИЛГЕР - В.ХАДЖИТОНЕВА ЕТ</t>
-  </si>
-  <si>
-    <t>42.70413,23.33292</t>
-  </si>
-  <si>
-    <t>ДИСИ ТАБАКО ООД</t>
-  </si>
-  <si>
-    <t>42.667011178894015,23.346950747072697</t>
-  </si>
-  <si>
-    <t>Дианабад</t>
-  </si>
-  <si>
-    <t>ДЖИ ЕН ТИ КОМЕРС ЕООД</t>
-  </si>
-  <si>
-    <t>42.70302,23.31707</t>
-  </si>
-  <si>
-    <t>АРАБСКА ХРАНА ЕООД</t>
-  </si>
-  <si>
-    <t>42.69383650144571,23.322961069643497</t>
-  </si>
-  <si>
-    <t>ЗЛАТЕН КРЪГ ЕООД</t>
-  </si>
-  <si>
-    <t>42.65603912424575,23.344677239656452</t>
-  </si>
-  <si>
-    <t>Студентски град</t>
-  </si>
-  <si>
-    <t>ИВАЙ ТРЕНД ООД</t>
-  </si>
-  <si>
-    <t>42.70135,23.33408</t>
-  </si>
-  <si>
-    <t>ПАВИЛИОН 24 ЕООД</t>
-  </si>
-  <si>
-    <t>42.47976699646284,23.752245164957457</t>
-  </si>
-  <si>
-    <t>с. Полянци</t>
-  </si>
-  <si>
-    <t>ИРА НИКОЛОВА ЕООД</t>
-  </si>
-  <si>
-    <t>42.44007,23.81606</t>
-  </si>
-  <si>
-    <t>Ихтиман</t>
-  </si>
-  <si>
-    <t>ФРЕШ МАРКЕТ 2018 ООД</t>
-  </si>
-  <si>
-    <t>42.68144,23.37459</t>
-  </si>
-  <si>
-    <t>БРАВОРИО ЕООД</t>
-  </si>
-  <si>
-    <t>42.69467,23.32221</t>
-  </si>
-  <si>
-    <t>ПРЕМИУМ ТАБАКО 11 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68203,23.37234</t>
-  </si>
-  <si>
-    <t>ДАНДИ 2 ООД</t>
-  </si>
-  <si>
-    <t>42.7179,23.33913</t>
-  </si>
-  <si>
-    <t>АТАМА ТУИН 2 ООД</t>
-  </si>
-  <si>
-    <t>42.657736179918885,23.462510301322936</t>
-  </si>
-  <si>
-    <t>НАЗАРЕТ МОЛ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66432004756084,23.284143805503845</t>
-  </si>
-  <si>
-    <t>Манастирски ливади - Запад</t>
-  </si>
-  <si>
-    <t>42.68785,23.31845</t>
-  </si>
-  <si>
-    <t>НДК ПРЕМИУМ ТАБАКО ЕООД</t>
-  </si>
-  <si>
-    <t>42.66845,23.3571</t>
-  </si>
-  <si>
-    <t>Изток</t>
-  </si>
-  <si>
-    <t>Д.Ж ФОР КОНСУЛТЕЙШЪН ООД</t>
-  </si>
-  <si>
-    <t>42.709106983549454,23.2984359562397</t>
-  </si>
-  <si>
-    <t>Света тройца</t>
-  </si>
-  <si>
-    <t>БОРИСОВИ 2001 ООД</t>
-  </si>
-  <si>
-    <t>42.710260937939395,23.2439498975873</t>
-  </si>
-  <si>
-    <t>АННА МАРИЯ ПЕТКОВА ЕООД</t>
-  </si>
-  <si>
-    <t>42.63,23.33356</t>
-  </si>
-  <si>
-    <t>Драгалевци</t>
-  </si>
-  <si>
-    <t>42.71398,23.85605</t>
-  </si>
-  <si>
-    <t>Златица</t>
-  </si>
-  <si>
-    <t>Идеа 2009-Попови ООД</t>
-  </si>
-  <si>
-    <t>42.68621,23.3187</t>
-  </si>
-  <si>
-    <t>ЕЛЕМ - 1 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70387,23.32374</t>
-  </si>
-  <si>
-    <t>РЕД МЪНКИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66646,23.34548</t>
-  </si>
-  <si>
-    <t>МАГАЗИНЧЕТО ЕООД</t>
-  </si>
-  <si>
-    <t>42.61213,23.33925</t>
-  </si>
-  <si>
-    <t>Симеоново</t>
-  </si>
-  <si>
-    <t>НИКОЛОВ ТРЕЙД 2017 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66046,24.05546</t>
-  </si>
-  <si>
-    <t>ПК ЗЛАТИЦА 91</t>
-  </si>
-  <si>
-    <t>42.71464,23.34733</t>
-  </si>
-  <si>
-    <t>ВИВИЛЕН ООД</t>
-  </si>
-  <si>
-    <t>42.709887949904484,23.290157318115234</t>
-  </si>
-  <si>
-    <t>ИС - 08 ООД</t>
-  </si>
-  <si>
-    <t>42.65897,23.45827</t>
-  </si>
-  <si>
-    <t>ТАНЯ ДИМИТРОВА-АЛЕКСАНДРА 2006 ЕТ</t>
-  </si>
-  <si>
-    <t>42.66699,23.3498</t>
-  </si>
-  <si>
-    <t>БИ ЕНД ЕР 13 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70881,23.28724</t>
-  </si>
-  <si>
-    <t>Илинден</t>
-  </si>
-  <si>
-    <t>МАВИК 24  ЕООД</t>
-  </si>
-  <si>
-    <t>42.43340126857448,23.82285699948352</t>
-  </si>
-  <si>
-    <t>ЖАНЕТА НОВАКОВА ЕТ</t>
-  </si>
-  <si>
-    <t>42.69107,23.3197</t>
-  </si>
-  <si>
-    <t>ХЕМУС 50 ООД</t>
-  </si>
-  <si>
-    <t>42.71754508778726,23.24129618704319</t>
-  </si>
-  <si>
-    <t>Люлин 4</t>
-  </si>
-  <si>
-    <t>С И М ЕООД</t>
-  </si>
-  <si>
-    <t>42.69993,24.18047</t>
-  </si>
-  <si>
-    <t>Пирдоп</t>
-  </si>
-  <si>
-    <t>ХРИСИ И МАГИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.67621223717643,23.360881805419922</t>
-  </si>
-  <si>
-    <t>Гео Милев</t>
-  </si>
-  <si>
-    <t>42.68177,23.24578</t>
-  </si>
-  <si>
-    <t>Овча купел 2</t>
-  </si>
-  <si>
-    <t>МАКСИМУМ 69 ООД</t>
-  </si>
-  <si>
-    <t>42.6004,23.49581</t>
-  </si>
-  <si>
-    <t>Лозен</t>
-  </si>
-  <si>
-    <t>РЕЙЛИ СТАР ООД</t>
-  </si>
-  <si>
-    <t>42.68002,23.25436</t>
-  </si>
-  <si>
-    <t>ЙО-ЙО ТРЕЙДИНГ ООД</t>
-  </si>
-  <si>
-    <t>42.68240875952811,23.323599100112915</t>
-  </si>
-  <si>
-    <t>Лозенец</t>
-  </si>
-  <si>
-    <t>42.66651,23.34556</t>
-  </si>
-  <si>
-    <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66924,23.36039</t>
-  </si>
-  <si>
-    <t>СБГ ГРУП ЕООД</t>
-  </si>
-  <si>
-    <t>42.702438806055085,24.17235229164362</t>
-  </si>
-  <si>
-    <t>АЛЕКСА ФУУД ЕООД</t>
-  </si>
-  <si>
-    <t>42.689903946318076,23.36395025253296</t>
-  </si>
-  <si>
-    <t>Редута</t>
-  </si>
-  <si>
-    <t>42.72091,23.33308</t>
-  </si>
-  <si>
-    <t>С&amp;М ТРЕЙДИНГ КЪМПАНИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.71207903774862,23.299790807068348</t>
-  </si>
-  <si>
-    <t>БГ ТАБАКО ЕООД</t>
-  </si>
-  <si>
-    <t>42.68866,23.31308</t>
-  </si>
-  <si>
-    <t>ВЕРИНАЙСРЕТЕЙЛ ЕООД</t>
-  </si>
-  <si>
-    <t>42.71735,23.31627</t>
-  </si>
-  <si>
-    <t>ВОМИКС ЕООД</t>
-  </si>
-  <si>
-    <t>42.6236,23.33207</t>
-  </si>
-  <si>
-    <t>ВИКТОРИЯ ГРУП СОФИЯ ЕООД</t>
-  </si>
-  <si>
-    <t>42.61584,23.33774</t>
-  </si>
-  <si>
-    <t>БОНУС - ВБ ООД</t>
-  </si>
-  <si>
-    <t>42.47974,23.75431</t>
-  </si>
-  <si>
-    <t>НИКОЛ-2008-ЛИЛИ ГЕОРГИЕВА ЕТ</t>
-  </si>
-  <si>
-    <t>42.66642,23.29645</t>
-  </si>
-  <si>
-    <t>Гоце Делчев</t>
-  </si>
-  <si>
-    <t>ЦЪКИ 83 ЕООД</t>
-  </si>
-  <si>
-    <t>42.64284,23.34414</t>
-  </si>
-  <si>
-    <t>Малинова Долина</t>
-  </si>
-  <si>
-    <t>НИ ЕМ 12 ЕООД</t>
-  </si>
-  <si>
-    <t>42.6013,23.48232</t>
-  </si>
-  <si>
-    <t>КИТ КРИС МАРТ ООД</t>
-  </si>
-  <si>
-    <t>42.6838,23.37221</t>
-  </si>
-  <si>
-    <t>ВЕНЕКС ТРЕЙД ООД</t>
-  </si>
-  <si>
-    <t>42.68395,23.24855</t>
-  </si>
-  <si>
-    <t>ЛИКЬОР СТОР ЕООД</t>
-  </si>
-  <si>
-    <t>42.68421,23.24145</t>
-  </si>
-  <si>
-    <t>МАРКАНА-6 ЕООД</t>
-  </si>
-  <si>
-    <t>42.65197,23.34683</t>
-  </si>
-  <si>
-    <t>К И Д 76 ООД</t>
-  </si>
-  <si>
-    <t>42.7206311,23.2425685</t>
-  </si>
-  <si>
-    <t>Люлин 3</t>
-  </si>
-  <si>
-    <t>АРГУМЕНТ 2013 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66874,23.35354</t>
-  </si>
-  <si>
-    <t>КРОС ТРЕЙДИНГ ООД</t>
-  </si>
-  <si>
-    <t>42.70653,23.33669</t>
-  </si>
-  <si>
-    <t>РАДИ - РАДОСЛАВ ВАСИЛЕВ ЕТ</t>
-  </si>
-  <si>
-    <t>42.69409,23.32252</t>
-  </si>
-  <si>
-    <t>42.5767,23.41433</t>
-  </si>
-  <si>
-    <t>Кокаляне</t>
-  </si>
-  <si>
-    <t>КЕМ-ЕМИЛ МИНЕВ 2012 ЕООД</t>
-  </si>
-  <si>
-    <t>42.71448362698105,23.34741175174713</t>
-  </si>
-  <si>
-    <t>С ХРИСТОВИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.6956,23.31517</t>
-  </si>
-  <si>
-    <t>МТГ ТРЕЙД ООД</t>
-  </si>
-  <si>
-    <t>42.69467,23.31457</t>
-  </si>
-  <si>
-    <t>42.67117,23.35239</t>
-  </si>
-  <si>
-    <t>МЕДЖИК ТИ ТРАКС ЕООД</t>
-  </si>
-  <si>
-    <t>42.68929,23.38279</t>
-  </si>
-  <si>
-    <t>кв. Христо Ботев</t>
-  </si>
-  <si>
-    <t>ЗОРНИЦА И ДЪЩЕРИ ПР ЕООД</t>
-  </si>
-  <si>
-    <t>42.33212,23.98785</t>
-  </si>
-  <si>
-    <t>42.70072,23.32933</t>
-  </si>
-  <si>
-    <t>42.66966,23.30364</t>
-  </si>
-  <si>
-    <t>Стрелбище</t>
-  </si>
-  <si>
-    <t>ИВАС - 2009 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68703,23.2554</t>
-  </si>
-  <si>
-    <t>НОВ ИМПУЛС ООД</t>
-  </si>
-  <si>
-    <t>42.69213,23.32438</t>
-  </si>
-  <si>
-    <t>42.69887,23.34077</t>
-  </si>
-  <si>
-    <t>ФРЕШ ТРЕЙД ГРУП ООД</t>
-  </si>
-  <si>
-    <t>42.66201,23.29461</t>
-  </si>
-  <si>
-    <t>ИНТЕРСПИЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.703880, 23.333334</t>
-  </si>
-  <si>
-    <t>А И А ТРЕЙД ООД</t>
-  </si>
-  <si>
-    <t>42.338428966292696,23.546090154894955</t>
-  </si>
-  <si>
-    <t>Самоков</t>
-  </si>
-  <si>
-    <t>А.Д.АНЖЕЛО ЕООД</t>
-  </si>
-  <si>
-    <t>42.70833,24.17603</t>
-  </si>
-  <si>
-    <t>ЦВЕТА-ЦВЕТАНА ЙОТОВА ЕТ</t>
-  </si>
-  <si>
-    <t>42.728171825495096,23.249982520937923</t>
-  </si>
-  <si>
-    <t>Люлин 2</t>
-  </si>
-  <si>
-    <t>42.70144,24.17421</t>
-  </si>
-  <si>
-    <t>БИ МАКС ЗЕТ ЕООД</t>
-  </si>
-  <si>
-    <t>42.704252946474384,23.323899507522583</t>
-  </si>
-  <si>
-    <t>ЕВРО БВР ЕООД</t>
-  </si>
-  <si>
-    <t>42.711848127193456,23.312301635742187</t>
-  </si>
-  <si>
-    <t>Банишора</t>
-  </si>
-  <si>
-    <t>42.63132,23.37497</t>
-  </si>
-  <si>
-    <t>Младост 4</t>
-  </si>
-  <si>
-    <t>МИБО 82 ООД</t>
-  </si>
-  <si>
-    <t>42.65366,23.34425</t>
-  </si>
-  <si>
-    <t>ТОРОС ТРЕЙД  2017 ЕООД</t>
-  </si>
-  <si>
-    <t>42.71655606623198,23.250129371881485</t>
-  </si>
-  <si>
-    <t>ЛЮЛИН-ИНФО ООД</t>
-  </si>
-  <si>
-    <t>42.67083227939056,23.598561733961105</t>
-  </si>
-  <si>
-    <t>Елин Пелин</t>
-  </si>
-  <si>
-    <t>КОМЕ ООД</t>
-  </si>
-  <si>
-    <t>42.71217,23.24181</t>
-  </si>
-  <si>
-    <t>ЛЮДМИЛ ТОСЕВ ЕТ</t>
-  </si>
-  <si>
-    <t>42.66436,23.45414</t>
-  </si>
-  <si>
-    <t>ФАСТ ФУУД 2020 ООД</t>
-  </si>
-  <si>
-    <t>42.660935,23.46092</t>
-  </si>
-  <si>
-    <t>42.68872496913484,23.25010120868683</t>
-  </si>
-  <si>
-    <t>МАРАКЕШ 91 ООД</t>
-  </si>
-  <si>
-    <t>42.67006154019734,23.352836398537192</t>
-  </si>
-  <si>
-    <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
-  </si>
-  <si>
-    <t>42.70616,23.29341</t>
-  </si>
-  <si>
-    <t>ДЮНЕР ФУУД ЕООД</t>
-  </si>
-  <si>
-    <t>42.6882,23.25699</t>
-  </si>
-  <si>
-    <t>НИГСИ 2010 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70073,23.32272</t>
-  </si>
-  <si>
-    <t>ПРИ МАРИО ЕООД</t>
-  </si>
-  <si>
-    <t>42.69846,23.33033</t>
-  </si>
-  <si>
-    <t>АЙ ПИ ТРЕЙД 2018 ООД</t>
-  </si>
-  <si>
-    <t>42.67861,23.37822</t>
-  </si>
-  <si>
-    <t>ЕЛ ДИ 2016 ЕООД</t>
-  </si>
-  <si>
-    <t>42.69526,23.32105</t>
-  </si>
-  <si>
-    <t>БОБИ 6 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70367862634765,23.350629396736622</t>
-  </si>
-  <si>
-    <t>АНОМИС 17 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66487,23.423</t>
-  </si>
-  <si>
-    <t>кв. Абдовица</t>
-  </si>
-  <si>
-    <t>ЦВЕТАКС ЕООД</t>
-  </si>
-  <si>
-    <t>42.683772231915206,23.278605043888092</t>
-  </si>
-  <si>
-    <t>Легера</t>
-  </si>
-  <si>
-    <t>ПСГ ДЕПО ЕООД</t>
-  </si>
-  <si>
-    <t>42.65212,23.34675</t>
-  </si>
-  <si>
-    <t>ИТЕКС 1 ООД</t>
-  </si>
-  <si>
-    <t>42.71357,23.29861</t>
-  </si>
-  <si>
-    <t>СОТО БГ ЕООД</t>
-  </si>
-  <si>
-    <t>42.69187,23.32555</t>
-  </si>
-  <si>
-    <t>БИРИЧКА ЕООД</t>
-  </si>
-  <si>
-    <t>42.70039,23.32736</t>
-  </si>
-  <si>
-    <t>42.68925,23.31927</t>
-  </si>
-  <si>
-    <t>ДАНСТОК ЕООД</t>
-  </si>
-  <si>
-    <t>42.65583,23.34933</t>
-  </si>
-  <si>
-    <t>МИ ПРОПЪРТИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66148,23.34657</t>
-  </si>
-  <si>
-    <t>ВМВ ЕООД</t>
-  </si>
-  <si>
-    <t>42.70893,23.38806</t>
-  </si>
-  <si>
-    <t>Левски В</t>
-  </si>
-  <si>
-    <t>ДЕСИ СОФИЯ ЕООД</t>
-  </si>
-  <si>
-    <t>42.67462972749616,23.298285752534866</t>
-  </si>
-  <si>
-    <t>ДАКО ТРЕЙД 2016 ЕООД</t>
-  </si>
-  <si>
-    <t>42.665,23.34915</t>
-  </si>
-  <si>
-    <t>ВИЗО 2016 ООД</t>
-  </si>
-  <si>
-    <t>42.32741,23.87079</t>
-  </si>
-  <si>
-    <t>ММ 20 ООД</t>
-  </si>
-  <si>
-    <t>42.61595,23.33755</t>
-  </si>
-  <si>
-    <t>БИАНКА 2008 ЕООД</t>
-  </si>
-  <si>
-    <t>42.69184191536887,23.989684134721756</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЯ 007 ЕООД</t>
-  </si>
-  <si>
-    <t>42.61646,23.41833</t>
-  </si>
-  <si>
-    <t>Герман</t>
-  </si>
-  <si>
-    <t>МИМЕКС ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.720652863702696,23.340554280729293</t>
-  </si>
-  <si>
-    <t>РУМИК - РУМЕН ТОДОРОВ ЕТ</t>
-  </si>
-  <si>
-    <t>42.6839,23.24156</t>
-  </si>
-  <si>
-    <t>СТРЕЛЕЦ 12 ООД</t>
-  </si>
-  <si>
-    <t>42.70369,23.3173</t>
-  </si>
-  <si>
-    <t>БРИЛЯНТ  35 ЕООД</t>
-  </si>
-  <si>
-    <t>42.67434,23.35921</t>
-  </si>
-  <si>
-    <t>ЩАСТЛИВАТА ПЕКАРНА ЕООД</t>
-  </si>
-  <si>
-    <t>42.7148023924966,23.242032453417778</t>
-  </si>
-  <si>
-    <t>АРТЕ ТАБАКО ЕООД</t>
-  </si>
-  <si>
-    <t>42.62945,23.33325</t>
-  </si>
-  <si>
-    <t>МИ-ЕР ООД</t>
-  </si>
-  <si>
-    <t>42.66734,23.35209</t>
-  </si>
-  <si>
-    <t>МЪНКИС ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.31111759354665,23.86153120547533</t>
-  </si>
-  <si>
-    <t>СТИВ 274 ЕООД</t>
-  </si>
-  <si>
-    <t>42.71167,23.34475</t>
-  </si>
-  <si>
-    <t>42.68777,23.34394</t>
-  </si>
-  <si>
-    <t>ФУУДУЕЙС ЕООД</t>
-  </si>
-  <si>
-    <t>42.69038647274998,23.252807892858982</t>
-  </si>
-  <si>
-    <t>СИЛВЪР ЕЙНДЖЪЛ-БГ ЕООД</t>
-  </si>
-  <si>
-    <t>42.68021,23.36709</t>
-  </si>
-  <si>
-    <t>ТАНДЕМ 96 ЕООД</t>
-  </si>
-  <si>
-    <t>42.43813,23.81441</t>
-  </si>
-  <si>
-    <t>НАДЕЖДА 991 ЕООД</t>
-  </si>
-  <si>
-    <t>42.69007,23.3317</t>
-  </si>
-  <si>
-    <t>БИ ЕНД ДИ ГРУП ЕООД</t>
-  </si>
-  <si>
-    <t>42.68294,23.2441</t>
-  </si>
-  <si>
-    <t>ХЕПИНЕС 2016 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68051,23.37326</t>
-  </si>
-  <si>
-    <t>ЗОДИ-РАЙ ООД</t>
-  </si>
-  <si>
-    <t>42.44329446699011,23.81559234112501</t>
-  </si>
-  <si>
-    <t>ДИА - СИ ООД</t>
-  </si>
-  <si>
-    <t>42.71205243179394,23.29976934939623</t>
-  </si>
-  <si>
-    <t>ЖОКЕР АЛТ ЕООД</t>
-  </si>
-  <si>
-    <t>42.65519,23.34069</t>
-  </si>
-  <si>
-    <t>БО ЕНД НИ 2019 ЕООД</t>
-  </si>
-  <si>
-    <t>42.7107359154949,23.29287238419056</t>
-  </si>
-  <si>
-    <t>МД ТРЕЙД ГРУП ЕООД</t>
-  </si>
-  <si>
-    <t>42.44814,23.75995</t>
-  </si>
-  <si>
-    <t>СМАК 21 ЕООД</t>
-  </si>
-  <si>
-    <t>42.71961,24.13454</t>
-  </si>
-  <si>
-    <t>42.65401595413222,23.346455208957195</t>
-  </si>
-  <si>
-    <t>КЕЙ ЕНД ПИ ХОТЕЛС ЕООД</t>
-  </si>
-  <si>
-    <t>42.71397,23.85598</t>
-  </si>
-  <si>
-    <t>МИХАЙЛ 1992 ЕООД</t>
-  </si>
-  <si>
-    <t>42.69632,23.28815</t>
-  </si>
-  <si>
-    <t>Разсадника</t>
-  </si>
-  <si>
-    <t>СТИВЪН ТД  ООД</t>
-  </si>
-  <si>
-    <t>42.69456,23.32093</t>
-  </si>
-  <si>
-    <t>42.69573138348872,23.313229276390075</t>
-  </si>
-  <si>
-    <t>ДЪЧ 2009 ЕООД</t>
-  </si>
-  <si>
-    <t>42.67117,23.30218</t>
-  </si>
-  <si>
-    <t>ВАСИЛЕВ ТРЕЙД 22 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70059,23.32861</t>
-  </si>
-  <si>
-    <t>КОНРАД ЛИМИТИД ЕООД</t>
-  </si>
-  <si>
-    <t>42.689499291537906,23.25451847165823</t>
-  </si>
-  <si>
-    <t>БРИЛЯНТ 24 ЕООД</t>
-  </si>
-  <si>
-    <t>42.6578,23.30333</t>
-  </si>
-  <si>
-    <t>Кръстова вада</t>
-  </si>
-  <si>
-    <t>ДЕНЕКСИМ ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.64082,23.34936</t>
-  </si>
-  <si>
-    <t>ВЕСТЕЛ 23 ЕООД</t>
-  </si>
-  <si>
-    <t>42.65761,23.34284</t>
-  </si>
-  <si>
-    <t>ТЕЗГЯХ ООД</t>
-  </si>
-  <si>
-    <t>42.71613113930301,23.23766514658928</t>
-  </si>
-  <si>
-    <t>МЕРИ М 2014 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66903,23.30099</t>
-  </si>
-  <si>
-    <t>ЕСЕЙДИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.69917,24.16837</t>
-  </si>
-  <si>
-    <t>АЛАГЕН 51-ГЕНКА СЕМКОВА ЕТ</t>
-  </si>
-  <si>
-    <t>42.72418,23.77532</t>
-  </si>
-  <si>
-    <t>села около Елин Пелин</t>
-  </si>
-  <si>
-    <t>ИВЕЛИН - 91 - МИЛЧО МИХАЙЛОВ ЕТ</t>
-  </si>
-  <si>
-    <t>42.70312,23.3235</t>
-  </si>
-  <si>
-    <t>ТОНИНИ ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.69818,23.32604</t>
-  </si>
-  <si>
-    <t>42.70709,23.34521</t>
-  </si>
-  <si>
-    <t>ВИТОШКИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.67617,23.43357</t>
-  </si>
-  <si>
-    <t>кв. Бусманци</t>
-  </si>
-  <si>
-    <t>АИС 2023 ООД</t>
-  </si>
-  <si>
-    <t>42.59302,23.41064</t>
-  </si>
-  <si>
-    <t>Панчарево</t>
-  </si>
-  <si>
-    <t>42.65422,23.3386</t>
-  </si>
-  <si>
-    <t>ФОРТУНА 9193 ООД</t>
-  </si>
-  <si>
-    <t>42.72919,23.31927</t>
-  </si>
-  <si>
-    <t>РОНИ 4 ЕООД</t>
-  </si>
-  <si>
-    <t>42.72901393938772, 23.227443820336934</t>
-  </si>
-  <si>
-    <t>Банкя</t>
-  </si>
-  <si>
-    <t>СМ ТРЕЙД 2000 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68938,23.24957</t>
-  </si>
-  <si>
-    <t>АДАШИ НН ООД</t>
-  </si>
-  <si>
-    <t>42.261680411823534,23.82338885217905</t>
-  </si>
-  <si>
-    <t>Село Костенец</t>
-  </si>
-  <si>
-    <t>ДЕВА-78 ЕТ</t>
-  </si>
-  <si>
-    <t>42.270076870951605,23.828038461506367</t>
-  </si>
-  <si>
-    <t>КАРАМИШЕВ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66711,23.26604</t>
-  </si>
-  <si>
-    <t>Бъкстон-Павлово</t>
-  </si>
-  <si>
-    <t>ДИВАРОВИ ООД</t>
-  </si>
-  <si>
-    <t>42.64221441975627,23.36895525455475</t>
-  </si>
-  <si>
-    <t>Младост 2</t>
-  </si>
-  <si>
-    <t>42.72064,23.33297</t>
-  </si>
-  <si>
-    <t>42.69002,23.3135</t>
-  </si>
-  <si>
-    <t>ГРАДО ЦЕНТЪР ЕООД</t>
-  </si>
-  <si>
-    <t>42.68853,23.37071</t>
-  </si>
-  <si>
-    <t>ДИАС 81 ЕООД</t>
-  </si>
-  <si>
-    <t>42.61731,23.08748</t>
-  </si>
-  <si>
-    <t>Перник Изток</t>
-  </si>
-  <si>
-    <t>БАЛДИМАР ООД</t>
-  </si>
-  <si>
-    <t>42.5822,23.42431</t>
-  </si>
-  <si>
-    <t>МЕЛИМА ЕООД</t>
-  </si>
-  <si>
-    <t>42.69952394818372,24.175536073744297</t>
-  </si>
-  <si>
-    <t>АСЯ - ТРАНС ЕООД</t>
-  </si>
-  <si>
-    <t>42.71228227730395,23.300483822822567</t>
-  </si>
-  <si>
-    <t>ДАРСТЕ ЕООД</t>
-  </si>
-  <si>
-    <t>42.71284050519136,23.300383239984512</t>
-  </si>
-  <si>
-    <t>БУРОВ И СИН ООД</t>
-  </si>
-  <si>
-    <t>42.68022,23.37273</t>
-  </si>
-  <si>
-    <t>ТАН КОМЕРС ЕООД</t>
-  </si>
-  <si>
-    <t>42.70819,23.35036</t>
-  </si>
-  <si>
-    <t>КАЗИНО УИН БЕТ ЕООД</t>
-  </si>
-  <si>
-    <t>42.43576,23.81742</t>
-  </si>
-  <si>
-    <t>ХРИС - КО 2021 ЕООД</t>
-  </si>
-  <si>
-    <t>42.30771,23.85829</t>
-  </si>
-  <si>
-    <t>ЖОРО - 87 ЕООД</t>
-  </si>
-  <si>
-    <t>42.67623,23.43286</t>
-  </si>
-  <si>
-    <t>СЛАВЯНКА 50 ЕООД</t>
-  </si>
-  <si>
-    <t>42.60246,23.47826</t>
-  </si>
-  <si>
-    <t>КАНАРИ 94 ЕООД</t>
-  </si>
-  <si>
-    <t>42.7044,23.33043</t>
-  </si>
-  <si>
-    <t>Г.К.СТАФ КОМСУЛТ ООД</t>
-  </si>
-  <si>
-    <t>42.68925,23.38259</t>
-  </si>
-  <si>
-    <t>НИКОЛ ТРЕЙДИНГ ОБОРОТ ЕООД</t>
-  </si>
-  <si>
-    <t>42.65967030909494,23.303105011582375</t>
-  </si>
-  <si>
-    <t>КРИСИС ШОП ЕООД</t>
-  </si>
-  <si>
-    <t>42.69924,23.33285</t>
-  </si>
-  <si>
-    <t>ДЖИМ-70 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66063,24.05558</t>
-  </si>
-  <si>
-    <t>ГЪРИ 69 ЕООД</t>
-  </si>
-  <si>
-    <t>42.68849,23.24421</t>
-  </si>
-  <si>
-    <t>ЕЛ ТРЕЙД 85 ООД</t>
-  </si>
-  <si>
-    <t>42.68864,23.24524</t>
-  </si>
-  <si>
-    <t>42.69252,23.31157</t>
-  </si>
-  <si>
-    <t>ВИЕНДИ КОМЕРС  ООД</t>
-  </si>
-  <si>
-    <t>42.68798,23.25508</t>
-  </si>
-  <si>
-    <t>МЕДЖИК 2020 ООД</t>
-  </si>
-  <si>
-    <t>42.67847790730902, 23.285199798293917</t>
-  </si>
-  <si>
-    <t>Хиподрума</t>
-  </si>
-  <si>
-    <t>г Красно село - вторник</t>
-  </si>
-  <si>
-    <t>42.7084337646523,23.28910857439041</t>
-  </si>
-  <si>
-    <t>42.65439,23.34219</t>
-  </si>
-  <si>
-    <t>ДИДИКОМ 94 ЕООД</t>
-  </si>
-  <si>
-    <t>42.7134,24.14001</t>
-  </si>
-  <si>
-    <t>42.43331664076029,23.82074151188135</t>
-  </si>
-  <si>
-    <t>РАЛИ ЕНД ПАРТНЪРС ЕООД</t>
-  </si>
-  <si>
-    <t>42.82112,23.35443</t>
-  </si>
-  <si>
-    <t>Нови Искър</t>
-  </si>
-  <si>
-    <t>С ТРЕЙД КЪМПАНИ ЕООД</t>
-  </si>
-  <si>
-    <t>42.70016,23.32311</t>
-  </si>
-  <si>
-    <t>КИК 12 ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.70679,23.33639</t>
-  </si>
-  <si>
-    <t>ДАС 22 ЕООД</t>
-  </si>
-  <si>
-    <t>42.61364,23.4149</t>
-  </si>
-  <si>
-    <t>42.67304,23.35371</t>
-  </si>
-  <si>
-    <t>Фреш БГ ЕООД</t>
-  </si>
-  <si>
-    <t>42.61741,23.33627</t>
-  </si>
-  <si>
-    <t>ГАБИ 99 ЕООД</t>
-  </si>
-  <si>
-    <t>42.60301,23.4023</t>
-  </si>
-  <si>
-    <t>ЕМ ШОП 666 ЕООД</t>
-  </si>
-  <si>
-    <t>42.60237,23.49602</t>
-  </si>
-  <si>
-    <t>НИКО - 2 ООД</t>
-  </si>
-  <si>
-    <t>42.68485,24.10601</t>
-  </si>
-  <si>
-    <t>42.6603,23.45461</t>
-  </si>
-  <si>
-    <t>ЛЮСИ 88 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66290039859404,23.345391377806664</t>
-  </si>
-  <si>
-    <t>АВОН БГ ООД</t>
-  </si>
-  <si>
-    <t>42.67467,23.29094</t>
-  </si>
-  <si>
-    <t>Бели брези</t>
-  </si>
-  <si>
-    <t>ЗАРА КОМЕРС 2017 ООД</t>
-  </si>
-  <si>
-    <t>42.65221419454582,23.345936730771654</t>
-  </si>
-  <si>
-    <t>42.69052,23.31957</t>
-  </si>
-  <si>
-    <t>ВОЛ ЕООД</t>
-  </si>
-  <si>
-    <t>42.713,24.13852</t>
-  </si>
-  <si>
-    <t>СЕМЕЙСТВО АДАМС ЕООД</t>
-  </si>
-  <si>
-    <t>42.65091,23.35812</t>
-  </si>
-  <si>
-    <t>ВЕЛИОН 22 ООД</t>
-  </si>
-  <si>
-    <t>42.6595,23.46002</t>
-  </si>
-  <si>
-    <t>САНИ-М 1962 ЕООД</t>
-  </si>
-  <si>
-    <t>42.65701,23.46543</t>
-  </si>
-  <si>
-    <t>ФРЕШ МАРКЕТ 2014 ООД</t>
-  </si>
-  <si>
-    <t>42.70601,23.29354</t>
-  </si>
-  <si>
-    <t>ШАМ ООД</t>
-  </si>
-  <si>
-    <t>42.307263297051854,23.85864146053791</t>
-  </si>
-  <si>
-    <t>42.66447,23.4233</t>
-  </si>
-  <si>
-    <t>АБДИ-СИТИ ООД</t>
-  </si>
-  <si>
-    <t>42.33739,23.88006</t>
-  </si>
-  <si>
-    <t>КРИС И АН 21 ЕООД</t>
-  </si>
-  <si>
-    <t>42.692,23.98977</t>
-  </si>
-  <si>
-    <t>ИЗГРЕВ -2013 ООД</t>
-  </si>
-  <si>
-    <t>42.68898,23.32012</t>
-  </si>
-  <si>
-    <t>42.69162,23.3252</t>
-  </si>
-  <si>
-    <t>42.74042,22.89921</t>
-  </si>
-  <si>
-    <t>Трън</t>
-  </si>
-  <si>
-    <t>ЗИКО СУГАРЕВ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66088854666696,24.055563881993294</t>
-  </si>
-  <si>
-    <t>НРГ 28 ЕООД</t>
-  </si>
-  <si>
-    <t>42.66246,23.46452</t>
-  </si>
-  <si>
-    <t>ЕДЕЛВАЙС - И ЕООД</t>
-  </si>
-  <si>
-    <t>42.68151,23.37229</t>
-  </si>
-  <si>
-    <t>КАМЕЙ ЕООД</t>
-  </si>
-  <si>
-    <t>42.66461,23.4629</t>
-  </si>
-  <si>
-    <t>Д И Н ТРЕЙД ЕООД</t>
-  </si>
-  <si>
-    <t>42.71982655136062,23.339141160249707</t>
-  </si>
-  <si>
-    <t>ЛИДЕР ГРУП - 83 ЕООД</t>
-  </si>
-  <si>
-    <t>42.60334,23.47497</t>
-  </si>
-  <si>
-    <t>СБГ Груп ЕООД</t>
-  </si>
-  <si>
-    <t>42.438385796003864,23.820898986902648</t>
-  </si>
-  <si>
-    <t>ПАРАДИЗО  2009 ЕООД</t>
-  </si>
-  <si>
-    <t>42.71170301653976,23.244926823825835</t>
-  </si>
-  <si>
-    <t>42.7095,23.35656</t>
-  </si>
-  <si>
-    <t>кв. Стефан Караджа</t>
-  </si>
-  <si>
-    <t>М ТРЕЙД 7 ЕООД</t>
-  </si>
-  <si>
-    <t>42.70679974952639,23.291889354586598</t>
-  </si>
-  <si>
-    <t>МАРИЯНА АНГЕЛОВА ЕТ</t>
+    <t>42.31251891708162,23.752410225570202</t>
+  </si>
+  <si>
+    <t>ИВАЙЛО 2003 ЕООД</t>
+  </si>
+  <si>
+    <t>42.26581,23.60648</t>
+  </si>
+  <si>
+    <t>Боровец</t>
+  </si>
+  <si>
+    <t>БОРОВЕЦ 18 ООД</t>
+  </si>
+  <si>
+    <t>42.66963,23.65067</t>
+  </si>
+  <si>
+    <t>СУРИКАТИ- АЦ ЕООД</t>
+  </si>
+  <si>
+    <t>42.64746,23.34534</t>
+  </si>
+  <si>
+    <t>42.66795,23.60513</t>
+  </si>
+  <si>
+    <t>ВАНЕЛИ - ЯНКУЛОВИ ООД</t>
+  </si>
+  <si>
+    <t>42.66259,23.41576</t>
+  </si>
+  <si>
+    <t>РЕНИ - ГОГО ЕООД</t>
+  </si>
+  <si>
+    <t>42.734943376749136,23.287230692803856</t>
+  </si>
+  <si>
+    <t>А И М 83 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70527,23.38527</t>
+  </si>
+  <si>
+    <t>42.70677,23.2996</t>
+  </si>
+  <si>
+    <t>ДЕСИТА 2022 ЕООД</t>
+  </si>
+  <si>
+    <t>42.70187,24.18587</t>
+  </si>
+  <si>
+    <t>ВАС ОЙЛ КЪМПАНИ ЕООД</t>
+  </si>
+  <si>
+    <t>42.66481,23.39903</t>
+  </si>
+  <si>
+    <t>ТДКААА ЕООД</t>
+  </si>
+  <si>
+    <t>42.69957,23.32101</t>
+  </si>
+  <si>
+    <t>42.663,23.39653</t>
+  </si>
+  <si>
+    <t>МАКС-ТАНЧЕВИ ООД</t>
   </si>
 </sst>
 </file>
@@ -2491,11 +2479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8DFB79-F850-4873-817E-23377AAC7453}">
-  <dimension ref="A1:E251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A74D56-537A-4757-9845-9424E843A212}">
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,13 +2513,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1007321301</v>
+        <v>1005985906</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2542,13 +2530,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1007192702</v>
+        <v>1005863803</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1007195901</v>
+        <v>1007232501</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,13 +2564,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1007154802</v>
+        <v>1005053702</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,50 +2578,50 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1005452104</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>1005526706</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>8.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1007047105</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>1003051102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8">
-        <v>1005850301</v>
+        <v>1007290501</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>1005812310</v>
+        <v>1007331501</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -2661,13 +2649,13 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>1007000101</v>
+        <v>1007002302</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10">
-        <v>27.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2678,30 +2666,30 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>1007108602</v>
+        <v>1005364228</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1007062004</v>
+        <v>1007001601</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2712,13 +2700,13 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1005753125</v>
+        <v>1007367501</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,135 +2714,135 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>1005707407</v>
+        <v>1005951501</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>1003056301</v>
+        <v>1007219801</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>1005746404</v>
+        <v>1005321049</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>1005799019</v>
+        <v>1007353501</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>1007340002</v>
+        <v>1005757905</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19">
-        <v>1005560104</v>
+        <v>1005926410</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>1001060001</v>
+        <v>1007378901</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>1007071701</v>
+        <v>1005783321</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,149 +2850,149 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C22">
-        <v>1007192704</v>
+        <v>1005993901</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E22">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C23">
-        <v>1003043701</v>
+        <v>1005487562</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>1005264201</v>
+        <v>1005783322</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C25">
-        <v>1005420901</v>
+        <v>1007339601</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>1007296001</v>
+        <v>1005177503</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>1007942402</v>
+        <v>1007015801</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C28">
-        <v>1007252003</v>
+        <v>1005892301</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28">
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>1007231801</v>
+        <v>1007226601</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C30">
-        <v>1005322022</v>
+        <v>1005075703</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -3012,237 +3000,237 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>1003048701</v>
+        <v>1005322015</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C32">
-        <v>1005364268</v>
+        <v>1005231403</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>1007387601</v>
+        <v>1007325401</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>1005875706</v>
+        <v>1005487543</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C35">
-        <v>1005904103</v>
+        <v>1005828218</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>1005990718</v>
+        <v>1005044001</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>1005155701</v>
+        <v>1005838006</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>1001060012</v>
+        <v>1007226901</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E38">
-        <v>6.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C39">
-        <v>1007305101</v>
+        <v>1005033120</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E39">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C40">
-        <v>1007254101</v>
+        <v>1007314501</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>1007282801</v>
+        <v>1007015802</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C42">
-        <v>1007289001</v>
+        <v>1005969901</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>1007154805</v>
+        <v>1005271201</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E43">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>1003930801</v>
+        <v>1007145501</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -3250,237 +3238,237 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C45">
-        <v>1005930401</v>
+        <v>1005961803</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>1005124801</v>
+        <v>1005178102</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E46">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C47">
-        <v>1007045101</v>
+        <v>1005310101</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C48">
-        <v>1007050601</v>
+        <v>1005586002</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C49">
-        <v>1005211010</v>
+        <v>1005847105</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C50">
-        <v>1005207702</v>
+        <v>1005033103</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C51">
-        <v>1005272103</v>
+        <v>1005961809</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C52">
-        <v>1005193303</v>
+        <v>1005133703</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C53">
-        <v>1007312603</v>
+        <v>1005847109</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>1007388901</v>
+        <v>1005994901</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>1003044901</v>
+        <v>1005322007</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="E55">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>1005930401</v>
+      </c>
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56">
         <v>15</v>
-      </c>
-      <c r="C56">
-        <v>1007252602</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56">
-        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C57">
-        <v>1007337001</v>
+        <v>1007052702</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E57">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>1007186602</v>
+        <v>1007381001</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3488,53 +3476,53 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>1001060009</v>
+        <v>1005765701</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E59">
-        <v>1.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C60">
-        <v>1005304301</v>
+        <v>1005926402</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>1005136702</v>
+        <v>1007021401</v>
       </c>
       <c r="D61" t="s">
         <v>153</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,16 +3530,16 @@
         <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C62">
-        <v>1007171102</v>
+        <v>1005914301</v>
       </c>
       <c r="D62" t="s">
         <v>155</v>
       </c>
       <c r="E62">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3562,248 +3550,248 @@
         <v>157</v>
       </c>
       <c r="C63">
-        <v>1001060002</v>
+        <v>1003921701</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C64">
-        <v>1005156905</v>
+        <v>1005207702</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>1005956002</v>
+        <v>1005318903</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C66">
-        <v>1005888201</v>
+        <v>1005033126</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="C67">
-        <v>1001060016</v>
+        <v>1003054301</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E67">
-        <v>2.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C68">
-        <v>1007121001</v>
+        <v>1005847107</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E68">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C69">
-        <v>1005981201</v>
+        <v>1005491202</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E69">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>1007396101</v>
+        <v>1005236005</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E70">
-        <v>29.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>1007193101</v>
+        <v>1005634902</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>1005664002</v>
+        <v>1007295601</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C73">
-        <v>1005957601</v>
+        <v>1005798406</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C74">
-        <v>1003054601</v>
+        <v>1005332103</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C75">
-        <v>1005866101</v>
+        <v>1005606401</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>1007146501</v>
+        <v>1007386401</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E76">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>1005527601</v>
+        <v>1007216802</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3811,155 +3799,155 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>1007952503</v>
+        <v>1005124803</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C79">
-        <v>1007063303</v>
+        <v>1007178701</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>1007314401</v>
+        <v>1007961102</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C81">
-        <v>1005734502</v>
+        <v>1003044601</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>1005753118</v>
+        <v>1005322018</v>
       </c>
       <c r="D82" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>1007930601</v>
+      </c>
+      <c r="D83" t="s">
         <v>199</v>
       </c>
-      <c r="B83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83">
-        <v>1005442501</v>
-      </c>
-      <c r="D83" t="s">
-        <v>200</v>
-      </c>
       <c r="E83">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>1007042602</v>
+      </c>
+      <c r="D84" t="s">
         <v>201</v>
       </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84">
-        <v>1005500501</v>
-      </c>
-      <c r="D84" t="s">
-        <v>202</v>
-      </c>
       <c r="E84">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
         <v>203</v>
       </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
       <c r="C85">
-        <v>1007192701</v>
+        <v>1005487520</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>1005573304</v>
+        <v>1007372401</v>
       </c>
       <c r="D86" t="s">
         <v>206</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,16 +3955,16 @@
         <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C87">
-        <v>1007968101</v>
+        <v>1005758602</v>
       </c>
       <c r="D87" t="s">
         <v>208</v>
       </c>
       <c r="E87">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,33 +3972,33 @@
         <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C88">
-        <v>1005236015</v>
+        <v>1005033118</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89">
+        <v>1005638201</v>
+      </c>
+      <c r="D89" t="s">
         <v>211</v>
       </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89">
-        <v>1007154807</v>
-      </c>
-      <c r="D89" t="s">
-        <v>16</v>
-      </c>
       <c r="E89">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,16 +4006,16 @@
         <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C90">
-        <v>1007209601</v>
+        <v>1005016315</v>
       </c>
       <c r="D90" t="s">
         <v>213</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4035,33 +4023,33 @@
         <v>214</v>
       </c>
       <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>1007950401</v>
+      </c>
+      <c r="D91" t="s">
         <v>215</v>
       </c>
-      <c r="C91">
-        <v>1007208401</v>
-      </c>
-      <c r="D91" t="s">
-        <v>216</v>
-      </c>
       <c r="E91">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>1005828217</v>
+      </c>
+      <c r="D92" t="s">
         <v>217</v>
       </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92">
-        <v>1003053002</v>
-      </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
       <c r="E92">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,33 +4057,33 @@
         <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C93">
-        <v>1005322016</v>
+        <v>1007997101</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="C94">
-        <v>1005231801</v>
+        <v>1005990724</v>
       </c>
       <c r="D94" t="s">
         <v>221</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,16 +4091,16 @@
         <v>222</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C95">
-        <v>1005746403</v>
+        <v>1005148603</v>
       </c>
       <c r="D95" t="s">
         <v>223</v>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,84 +4108,84 @@
         <v>224</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>1007192703</v>
+        <v>1007282001</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="E96">
-        <v>13.5</v>
+        <v>10.083</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C97">
-        <v>1005364253</v>
+        <v>1005808001</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E97">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>1005798412</v>
+        <v>1003916801</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C99">
-        <v>1005487501</v>
+        <v>1005088301</v>
       </c>
       <c r="D99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E99">
-        <v>7.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="C100">
-        <v>1003045501</v>
+        <v>1005884406</v>
       </c>
       <c r="D100" t="s">
         <v>233</v>
       </c>
       <c r="E100">
-        <v>398</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,16 +4193,16 @@
         <v>234</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C101">
-        <v>1005177001</v>
+        <v>1005416902</v>
       </c>
       <c r="D101" t="s">
         <v>235</v>
       </c>
       <c r="E101">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4222,13 +4210,13 @@
         <v>236</v>
       </c>
       <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>1003046102</v>
+      </c>
+      <c r="D102" t="s">
         <v>237</v>
-      </c>
-      <c r="C102">
-        <v>1005746402</v>
-      </c>
-      <c r="D102" t="s">
-        <v>223</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -4239,16 +4227,16 @@
         <v>238</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C103">
-        <v>1007163601</v>
+        <v>1005294504</v>
       </c>
       <c r="D103" t="s">
         <v>239</v>
       </c>
       <c r="E103">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4256,16 +4244,16 @@
         <v>240</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C104">
-        <v>1005728903</v>
+        <v>1005995301</v>
       </c>
       <c r="D104" t="s">
         <v>241</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,16 +4261,16 @@
         <v>242</v>
       </c>
       <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>1005321055</v>
+      </c>
+      <c r="D105" t="s">
         <v>243</v>
       </c>
-      <c r="C105">
-        <v>1001060004</v>
-      </c>
-      <c r="D105" t="s">
-        <v>57</v>
-      </c>
       <c r="E105">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,118 +4278,118 @@
         <v>244</v>
       </c>
       <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106">
+        <v>1005858302</v>
+      </c>
+      <c r="D106" t="s">
         <v>245</v>
       </c>
-      <c r="C106">
-        <v>1005884407</v>
-      </c>
-      <c r="D106" t="s">
-        <v>246</v>
-      </c>
       <c r="E106">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107">
+        <v>1005790402</v>
+      </c>
+      <c r="D107" t="s">
         <v>247</v>
       </c>
-      <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107">
-        <v>1005887601</v>
-      </c>
-      <c r="D107" t="s">
-        <v>248</v>
-      </c>
       <c r="E107">
-        <v>22.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>1001120102</v>
+      </c>
+      <c r="D108" t="s">
         <v>249</v>
       </c>
-      <c r="B108" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108">
-        <v>1005265303</v>
-      </c>
-      <c r="D108" t="s">
-        <v>250</v>
-      </c>
       <c r="E108">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109">
+        <v>1007208401</v>
+      </c>
+      <c r="D109" t="s">
         <v>251</v>
       </c>
-      <c r="B109" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109">
-        <v>1001030024</v>
-      </c>
-      <c r="D109" t="s">
-        <v>253</v>
-      </c>
       <c r="E109">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C110">
-        <v>1005257202</v>
+        <v>1003043501</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111">
+        <v>1005033124</v>
+      </c>
+      <c r="D111" t="s">
         <v>256</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111">
-        <v>1007182201</v>
-      </c>
-      <c r="D111" t="s">
-        <v>257</v>
-      </c>
       <c r="E111">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112">
+        <v>1005978201</v>
+      </c>
+      <c r="D112" t="s">
         <v>258</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>1001030036</v>
-      </c>
-      <c r="D112" t="s">
-        <v>253</v>
-      </c>
       <c r="E112">
-        <v>8</v>
+        <v>5.0419999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,16 +4397,16 @@
         <v>259</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="C113">
-        <v>1005733002</v>
+        <v>1007308302</v>
       </c>
       <c r="D113" t="s">
         <v>260</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,353 +4414,353 @@
         <v>261</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C114">
-        <v>1005487552</v>
+        <v>1005033115</v>
       </c>
       <c r="D114" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115">
+        <v>1007974501</v>
+      </c>
+      <c r="D115" t="s">
         <v>263</v>
       </c>
-      <c r="B115" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115">
-        <v>1005774002</v>
-      </c>
-      <c r="D115" t="s">
-        <v>264</v>
-      </c>
       <c r="E115">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>1007316822</v>
+      </c>
+      <c r="D116" t="s">
         <v>265</v>
       </c>
-      <c r="B116" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116">
-        <v>1005181702</v>
-      </c>
-      <c r="D116" t="s">
-        <v>266</v>
-      </c>
       <c r="E116">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>1007112401</v>
+      </c>
+      <c r="D117" t="s">
         <v>267</v>
       </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>1007392901</v>
-      </c>
-      <c r="D117" t="s">
-        <v>268</v>
-      </c>
       <c r="E117">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>1005614002</v>
+      </c>
+      <c r="D118" t="s">
         <v>269</v>
       </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118">
-        <v>1005236003</v>
-      </c>
-      <c r="D118" t="s">
-        <v>270</v>
-      </c>
       <c r="E118">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119">
+        <v>1005177001</v>
+      </c>
+      <c r="D119" t="s">
         <v>271</v>
       </c>
-      <c r="B119" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119">
-        <v>1005902601</v>
-      </c>
-      <c r="D119" t="s">
-        <v>272</v>
-      </c>
       <c r="E119">
-        <v>21</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120">
+        <v>1007314701</v>
+      </c>
+      <c r="D120" t="s">
         <v>273</v>
       </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120">
-        <v>1007150801</v>
-      </c>
-      <c r="D120" t="s">
-        <v>274</v>
-      </c>
       <c r="E120">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>1005563601</v>
+        <v>1005990722</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="C122">
-        <v>1005115501</v>
+        <v>1005770907</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E122">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C123">
-        <v>1007245401</v>
+        <v>1005207401</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <v>1005171105</v>
+        <v>1005887601</v>
       </c>
       <c r="D124" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C125">
-        <v>1005666601</v>
+        <v>1005783303</v>
       </c>
       <c r="D125" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="E125">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C126">
-        <v>1007274502</v>
+        <v>1007980001</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E126">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>1005442505</v>
+        <v>1005170903</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="E127">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C128">
-        <v>1007047103</v>
+        <v>1005405902</v>
       </c>
       <c r="D128" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E128">
-        <v>17</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C129">
-        <v>1007224301</v>
+        <v>1005231602</v>
       </c>
       <c r="D129" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E129">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C130">
-        <v>1005039001</v>
+        <v>1003932601</v>
       </c>
       <c r="D130" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E130">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="C131">
-        <v>1005491601</v>
+        <v>1005231501</v>
       </c>
       <c r="D131" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E131">
-        <v>828</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="C132">
-        <v>1005930602</v>
+        <v>1005364269</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E132">
-        <v>3.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C133">
-        <v>1005207403</v>
+        <v>1005847104</v>
       </c>
       <c r="D133" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="E133">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="C134">
-        <v>1007332801</v>
+        <v>1005992201</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E134">
         <v>3</v>
@@ -4780,798 +4768,798 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C135">
-        <v>1005157901</v>
+        <v>1007392901</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E135">
-        <v>10.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C136">
-        <v>1007940501</v>
+        <v>1007330901</v>
       </c>
       <c r="D136" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B137" t="s">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="C137">
-        <v>1005163901</v>
+        <v>1005816401</v>
       </c>
       <c r="D137" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E137">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C138">
-        <v>1005270001</v>
+        <v>1005735605</v>
       </c>
       <c r="D138" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E138">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>1005735601</v>
+        <v>1007961101</v>
       </c>
       <c r="D139" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="E139">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C140">
-        <v>1001150401</v>
+        <v>1007293901</v>
       </c>
       <c r="D140" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E140">
-        <v>4.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C141">
-        <v>1007203701</v>
+        <v>1005171104</v>
       </c>
       <c r="D141" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E141">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>1007353101</v>
+        <v>1007209801</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C143">
-        <v>1007273901</v>
+        <v>1007041401</v>
       </c>
       <c r="D143" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C144">
-        <v>1007193802</v>
+        <v>1005212207</v>
       </c>
       <c r="D144" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C145">
-        <v>1003935701</v>
+        <v>1005212205</v>
       </c>
       <c r="D145" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E145">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C146">
-        <v>1005812304</v>
+        <v>1005831501</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="C147">
-        <v>1005961801</v>
+        <v>1005960202</v>
       </c>
       <c r="D147" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E147">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C148">
-        <v>1007299701</v>
+        <v>1005156908</v>
       </c>
       <c r="D148" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E148">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C149">
-        <v>1005984701</v>
+        <v>1005487514</v>
       </c>
       <c r="D149" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E149">
-        <v>8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C150">
-        <v>1003042701</v>
+        <v>1003045001</v>
       </c>
       <c r="D150" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E150">
-        <v>99</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>1005753301</v>
+        <v>1005716803</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C152">
-        <v>1005977601</v>
+        <v>1005510311</v>
       </c>
       <c r="D152" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E152">
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B153" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>1005058309</v>
+        <v>1005797401</v>
       </c>
       <c r="D153" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C154">
-        <v>1003045701</v>
+        <v>1007324101</v>
       </c>
       <c r="D154" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E154">
-        <v>13</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="C155">
-        <v>1007359101</v>
+        <v>1005875101</v>
       </c>
       <c r="D155" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E155">
-        <v>6.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="C156">
-        <v>1007045602</v>
+        <v>1005356002</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C157">
-        <v>1007222601</v>
+        <v>1007026901</v>
       </c>
       <c r="D157" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E157">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C158">
-        <v>1003937001</v>
+        <v>1007975201</v>
       </c>
       <c r="D158" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C159">
-        <v>1005211004</v>
+        <v>1007223901</v>
       </c>
       <c r="D159" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C160">
-        <v>1007106602</v>
+        <v>1005884401</v>
       </c>
       <c r="D160" t="s">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="E160">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B161" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C161">
-        <v>1003905501</v>
+        <v>1007378601</v>
       </c>
       <c r="D161" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E161">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="C162">
-        <v>1005208404</v>
+        <v>1005828201</v>
       </c>
       <c r="D162" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="C163">
-        <v>1005875704</v>
+        <v>1007041701</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="E163">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C164">
-        <v>1005178001</v>
+        <v>1005727802</v>
       </c>
       <c r="D164" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E164">
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C165">
-        <v>1007220301</v>
+        <v>1005847106</v>
       </c>
       <c r="D165" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
       <c r="C166">
-        <v>1005799003</v>
+        <v>1005990725</v>
       </c>
       <c r="D166" t="s">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="E166">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B167" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>1001150105</v>
+        <v>1005879301</v>
       </c>
       <c r="D167" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="C168">
-        <v>1007309701</v>
+        <v>1007047104</v>
       </c>
       <c r="D168" t="s">
-        <v>372</v>
+        <v>21</v>
       </c>
       <c r="E168">
-        <v>2.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="C169">
-        <v>1007331901</v>
+        <v>1005860201</v>
       </c>
       <c r="D169" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E169">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C170">
-        <v>1005852401</v>
+        <v>1007353601</v>
       </c>
       <c r="D170" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E170">
-        <v>7.5</v>
+        <v>9.5419999999999998</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="C171">
-        <v>1005811601</v>
+        <v>1005033111</v>
       </c>
       <c r="D171" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="E171">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B172" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="C172">
-        <v>1005058403</v>
+        <v>1005828212</v>
       </c>
       <c r="D172" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E172">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B173" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="C173">
-        <v>1005003904</v>
+        <v>1005070301</v>
       </c>
       <c r="D173" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E173">
-        <v>40</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B174" t="s">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="C174">
-        <v>1005095601</v>
+        <v>1005964501</v>
       </c>
       <c r="D174" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="C175">
-        <v>1005808601</v>
+        <v>1005961806</v>
       </c>
       <c r="D175" t="s">
-        <v>387</v>
+        <v>119</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="C176">
-        <v>1007252004</v>
+        <v>1005072001</v>
       </c>
       <c r="D176" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C177">
-        <v>1005330401</v>
+        <v>1005798402</v>
       </c>
       <c r="D177" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
       <c r="E177">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="C178">
-        <v>1007275901</v>
+        <v>1005075601</v>
       </c>
       <c r="D178" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B179" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="C179">
-        <v>1005573301</v>
+        <v>1005536503</v>
       </c>
       <c r="D179" t="s">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="E179">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B180" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C180">
-        <v>1005984501</v>
+        <v>1005171106</v>
       </c>
       <c r="D180" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="E180">
-        <v>8.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C181">
-        <v>1005721801</v>
+        <v>1007951701</v>
       </c>
       <c r="D181" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -5579,322 +5567,322 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B182" t="s">
-        <v>401</v>
+        <v>26</v>
       </c>
       <c r="C182">
-        <v>1005877401</v>
+        <v>1005462010</v>
       </c>
       <c r="D182" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E182">
-        <v>960</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B183" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="C183">
-        <v>1005393501</v>
+        <v>1003905501</v>
       </c>
       <c r="D183" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E183">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="C184">
-        <v>1003044001</v>
+        <v>1005053904</v>
       </c>
       <c r="D184" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E184">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B185" t="s">
-        <v>406</v>
+        <v>128</v>
       </c>
       <c r="C185">
-        <v>1003916001</v>
+        <v>1005847103</v>
       </c>
       <c r="D185" t="s">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="E185">
-        <v>2.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B186" t="s">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="C186">
-        <v>1007332101</v>
+        <v>1005346168</v>
       </c>
       <c r="D186" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="E186">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B187" t="s">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="C187">
-        <v>1005884405</v>
+        <v>1005097602</v>
       </c>
       <c r="D187" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="E187">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C188">
-        <v>1005798407</v>
+        <v>1007042601</v>
       </c>
       <c r="D188" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E188">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C189">
-        <v>1005377406</v>
+        <v>1005581801</v>
       </c>
       <c r="D189" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="E189">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C190">
-        <v>1005569501</v>
+        <v>1005216202</v>
       </c>
       <c r="D190" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B191" t="s">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="C191">
-        <v>1003950701</v>
+        <v>1005774301</v>
       </c>
       <c r="D191" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E191">
-        <v>324</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B192" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C192">
-        <v>1007988701</v>
+        <v>1007952502</v>
       </c>
       <c r="D192" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E192">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="C193">
-        <v>1005727803</v>
+        <v>1005274002</v>
       </c>
       <c r="D193" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E193">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B194" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C194">
-        <v>1005993001</v>
+        <v>1005003904</v>
       </c>
       <c r="D194" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E194">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B195" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C195">
-        <v>1001100001</v>
+        <v>1003055001</v>
       </c>
       <c r="D195" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="E195">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C196">
-        <v>1007331601</v>
+        <v>1003046001</v>
       </c>
       <c r="D196" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="E196">
-        <v>26</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B197" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C197">
-        <v>1007316804</v>
+        <v>1007381401</v>
       </c>
       <c r="D197" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="E197">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B198" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C198">
-        <v>1007986203</v>
+        <v>1005173901</v>
       </c>
       <c r="D198" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E198">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C199">
-        <v>1003052601</v>
+        <v>1005265502</v>
       </c>
       <c r="D199" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="E199">
-        <v>6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B200" t="s">
-        <v>392</v>
+        <v>88</v>
       </c>
       <c r="C200">
-        <v>1005527501</v>
+        <v>1003046203</v>
       </c>
       <c r="D200" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="E200">
         <v>8</v>
@@ -5902,628 +5890,628 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B201" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C201">
-        <v>1005878301</v>
+        <v>1007220101</v>
       </c>
       <c r="D201" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E201">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C202">
-        <v>1007360701</v>
+        <v>1007140801</v>
       </c>
       <c r="D202" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E202">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="C203">
-        <v>1005831201</v>
+        <v>1005130302</v>
       </c>
       <c r="D203" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E203">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B204" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C204">
-        <v>1007326102</v>
+        <v>1005519210</v>
       </c>
       <c r="D204" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="E204">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C205">
-        <v>1005913601</v>
+        <v>1005858301</v>
       </c>
       <c r="D205" t="s">
-        <v>450</v>
+        <v>245</v>
       </c>
       <c r="E205">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B206" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C206">
-        <v>1007324401</v>
+        <v>1005727803</v>
       </c>
       <c r="D206" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="E206">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B207" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C207">
-        <v>1007283701</v>
+        <v>1007036001</v>
       </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E207">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B208" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C208">
-        <v>1005930605</v>
+        <v>1007146901</v>
       </c>
       <c r="D208" t="s">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="E208">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="C209">
-        <v>1005828202</v>
+        <v>1007295501</v>
       </c>
       <c r="D209" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E209">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B210" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C210">
-        <v>1007125801</v>
+        <v>1005877901</v>
       </c>
       <c r="D210" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="E210">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B211" t="s">
-        <v>461</v>
+        <v>20</v>
       </c>
       <c r="C211">
-        <v>1004500112</v>
+        <v>1007185305</v>
       </c>
       <c r="D211" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E211">
-        <v>18.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B212" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C212">
-        <v>1001060007</v>
+        <v>1005322024</v>
       </c>
       <c r="D212" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E212">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B213" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>1007322001</v>
+        <v>1005185602</v>
       </c>
       <c r="D213" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E213">
-        <v>20</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>1005211001</v>
+        <v>1007369401</v>
       </c>
       <c r="D214" t="s">
-        <v>124</v>
+        <v>451</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B215" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C215">
-        <v>1003053901</v>
+        <v>1005683001</v>
       </c>
       <c r="D215" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="E215">
-        <v>12</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B216" t="s">
-        <v>470</v>
+        <v>183</v>
       </c>
       <c r="C216">
-        <v>1007342701</v>
+        <v>1005831201</v>
       </c>
       <c r="D216" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E216">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>457</v>
       </c>
       <c r="C217">
-        <v>1005033108</v>
+        <v>1005978301</v>
       </c>
       <c r="D217" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E217">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C218">
-        <v>1007201701</v>
+        <v>100554803</v>
       </c>
       <c r="D218" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E218">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B219" t="s">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="C219">
-        <v>1007382704</v>
+        <v>1005406801</v>
       </c>
       <c r="D219" t="s">
-        <v>36</v>
+        <v>462</v>
       </c>
       <c r="E219">
-        <v>7.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="C220">
-        <v>1005799012</v>
+        <v>1005519211</v>
       </c>
       <c r="D220" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="E220">
-        <v>7.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B221" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="C221">
-        <v>1007995101</v>
+        <v>1005960204</v>
       </c>
       <c r="D221" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E221">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B222" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
       <c r="C222">
-        <v>1007329301</v>
+        <v>1007947501</v>
       </c>
       <c r="D222" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E222">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B223" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C223">
-        <v>1005124410</v>
+        <v>1005487506</v>
       </c>
       <c r="D223" t="s">
-        <v>484</v>
+        <v>204</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B224" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C224">
-        <v>1005211009</v>
+        <v>1005212206</v>
       </c>
       <c r="D224" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C225">
-        <v>1007391401</v>
+        <v>1007237302</v>
       </c>
       <c r="D225" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E225">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B226" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C226">
-        <v>1005916402</v>
+        <v>1005272104</v>
       </c>
       <c r="D226" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E226">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B227" t="s">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="C227">
-        <v>1007395901</v>
+        <v>1007220404</v>
       </c>
       <c r="D227" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E227">
-        <v>18.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B228" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C228">
-        <v>1005171102</v>
+        <v>1005152102</v>
       </c>
       <c r="D228" t="s">
-        <v>284</v>
+        <v>478</v>
       </c>
       <c r="E228">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C229">
-        <v>1007047102</v>
+        <v>1007346501</v>
       </c>
       <c r="D229" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E229">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B230" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C230">
-        <v>1007032601</v>
+        <v>1005990723</v>
       </c>
       <c r="D230" t="s">
-        <v>497</v>
+        <v>221</v>
       </c>
       <c r="E230">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B231" t="s">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="C231">
-        <v>1005999904</v>
+        <v>1007219901</v>
       </c>
       <c r="D231" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E231">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C232">
-        <v>1005053604</v>
+        <v>1001100003</v>
       </c>
       <c r="D232" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>1005364244</v>
+        <v>1007338501</v>
       </c>
       <c r="D233" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="E233">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C234">
-        <v>1007129501</v>
+        <v>1005322008</v>
       </c>
       <c r="D234" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="E234">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C235">
-        <v>1003052602</v>
+        <v>1005510301</v>
       </c>
       <c r="D235" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B236" t="s">
-        <v>278</v>
+        <v>492</v>
       </c>
       <c r="C236">
-        <v>1005052803</v>
+        <v>1005124410</v>
       </c>
       <c r="D236" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E236">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C237">
-        <v>1007211101</v>
+        <v>1007216801</v>
       </c>
       <c r="D237" t="s">
-        <v>510</v>
+        <v>188</v>
       </c>
       <c r="E237">
         <v>6</v>
@@ -6531,135 +6519,135 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B238" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C238">
-        <v>1005694102</v>
+        <v>1005606006</v>
       </c>
       <c r="D238" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E238">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C239">
-        <v>1005707406</v>
+        <v>1005168602</v>
       </c>
       <c r="D239" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="E239">
-        <v>24.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C240">
-        <v>1005875707</v>
+        <v>1005177502</v>
       </c>
       <c r="D240" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E240">
-        <v>12.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>128</v>
       </c>
       <c r="C241">
-        <v>1007011202</v>
+        <v>1007949802</v>
       </c>
       <c r="D241" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E241">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B242" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C242">
-        <v>1007049201</v>
+        <v>1005361401</v>
       </c>
       <c r="D242" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E242">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>505</v>
       </c>
       <c r="C243">
-        <v>1005136102</v>
+        <v>1005969401</v>
       </c>
       <c r="D243" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="E243">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B244" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C244">
-        <v>1005207402</v>
+        <v>1003053001</v>
       </c>
       <c r="D244" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E244">
-        <v>13.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C245">
-        <v>1007217801</v>
+        <v>1007300101</v>
       </c>
       <c r="D245" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="E245">
         <v>4</v>
@@ -6667,107 +6655,210 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="C246">
-        <v>1005449907</v>
+        <v>1007361301</v>
       </c>
       <c r="D246" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E246">
-        <v>11.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B247" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C247">
-        <v>1005956001</v>
+        <v>1007203501</v>
       </c>
       <c r="D247" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E247">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C248">
-        <v>1003046401</v>
+        <v>1005960203</v>
       </c>
       <c r="D248" t="s">
-        <v>531</v>
+        <v>324</v>
       </c>
       <c r="E248">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B249" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C249">
-        <v>1005257201</v>
+        <v>1005119303</v>
       </c>
       <c r="D249" t="s">
-        <v>255</v>
+        <v>518</v>
       </c>
       <c r="E249">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B250" t="s">
-        <v>534</v>
+        <v>110</v>
       </c>
       <c r="C250">
-        <v>1005684201</v>
+        <v>1005872701</v>
       </c>
       <c r="D250" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B251" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="C251">
-        <v>1005350001</v>
+        <v>1007027102</v>
       </c>
       <c r="D251" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="E251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>523</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>1005990717</v>
+      </c>
+      <c r="D252" t="s">
+        <v>221</v>
+      </c>
+      <c r="E252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>524</v>
+      </c>
+      <c r="B253" t="s">
+        <v>379</v>
+      </c>
+      <c r="C253">
+        <v>1005976102</v>
+      </c>
+      <c r="D253" t="s">
+        <v>525</v>
+      </c>
+      <c r="E253">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>526</v>
+      </c>
+      <c r="B254" t="s">
+        <v>83</v>
+      </c>
+      <c r="C254">
+        <v>1005367701</v>
+      </c>
+      <c r="D254" t="s">
+        <v>527</v>
+      </c>
+      <c r="E254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>528</v>
+      </c>
+      <c r="B255" t="s">
         <v>12</v>
       </c>
+      <c r="C255">
+        <v>1007225201</v>
+      </c>
+      <c r="D255" t="s">
+        <v>529</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>530</v>
+      </c>
+      <c r="B256" t="s">
+        <v>62</v>
+      </c>
+      <c r="C256">
+        <v>1005783312</v>
+      </c>
+      <c r="D256" t="s">
+        <v>60</v>
+      </c>
+      <c r="E256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>531</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257">
+        <v>1005188203</v>
+      </c>
+      <c r="D257" t="s">
+        <v>532</v>
+      </c>
+      <c r="E257">
+        <v>19.082999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E257" xr:uid="{13A74D56-537A-4757-9845-9424E843A212}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>